--- a/导表工具/C-充值奖励配置.xlsx
+++ b/导表工具/C-充值奖励配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="801" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="801" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="首充配置" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="276">
   <si>
     <t>导出类型</t>
   </si>
@@ -1200,12 +1200,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,9 +1322,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,33 +1352,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Lucida Calligraphy"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="华文细黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1378,22 +1405,34 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="新宋体"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="华文新魏"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="华文细黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1405,52 +1444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="华文细黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,9 +1460,9 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="新宋体"/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="华文仿宋"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1478,17 +1473,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1500,25 +1488,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="华文新魏"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF0070C0"/>
+      <name val="Lucida Calligraphy"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="新宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1555,6 +1555,17 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1621,19 +1632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,19 +1644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,7 +1656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,7 +1680,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,7 +1782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,56 +1803,18 @@
       </gradientFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1" tint="0.250984221930601"/>
+        </stop>
+        <stop position="1">
+          <color theme="1"/>
+        </stop>
+      </gradientFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,47 +1826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color theme="1" tint="0.250984221930601"/>
-        </stop>
-        <stop position="1">
-          <color theme="1"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,18 +1846,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149876400036622"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1965,6 +1976,104 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1989,105 +2098,7 @@
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2096,195 +2107,195 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="17" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="16" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="16" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="12">
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="16">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="19" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="20" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="17" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="16" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="12" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="16" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="16" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1">
@@ -2584,7 +2595,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2915,18 +2926,18 @@
       <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.3796296296296" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.62962962962963" style="24" customWidth="1"/>
-    <col min="3" max="3" width="24.9537037037037" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.37962962962963" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.8796296296296" style="24" customWidth="1"/>
+    <col min="1" max="1" width="15.3833333333333" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.63333333333333" style="24" customWidth="1"/>
+    <col min="3" max="3" width="24.95" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.38333333333333" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.8833333333333" style="24" customWidth="1"/>
     <col min="6" max="6" width="4" style="24" customWidth="1"/>
     <col min="7" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11.25" customHeight="1" spans="1:6">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +2953,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" ht="11.25" customHeight="1" spans="1:6">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2958,7 +2969,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" ht="11.25" customHeight="1" spans="1:5">
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2969,12 +2980,12 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" ht="11.25" customHeight="1" spans="1:3">
+    <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" ht="11.25" customHeight="1" spans="1:4">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2988,7 +2999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="11.25" customHeight="1" spans="1:4">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -3002,7 +3013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="11.25" customHeight="1" spans="1:4">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -3088,7 +3099,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="25.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="83.25" customWidth="1"/>
@@ -3242,10 +3253,10 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="23.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="23.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3409,10 +3420,10 @@
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="48"/>
-    <col min="3" max="3" width="7.37962962962963" style="48" customWidth="1"/>
+    <col min="3" max="3" width="7.38333333333333" style="48" customWidth="1"/>
     <col min="5" max="5" width="108.75" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="19" max="21" width="9.25"/>
@@ -5646,10 +5657,10 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="48"/>
-    <col min="3" max="3" width="7.37962962962963" style="48" customWidth="1"/>
+    <col min="3" max="3" width="7.38333333333333" style="48" customWidth="1"/>
     <col min="5" max="5" width="108.75" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="19" max="21" width="9.25"/>
@@ -6073,7 +6084,7 @@
       <c r="N16" s="52"/>
       <c r="O16" s="52"/>
     </row>
-    <row r="17" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="17" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A17" s="53">
         <v>10000</v>
       </c>
@@ -6102,7 +6113,7 @@
       <c r="N17" s="57"/>
       <c r="O17" s="57"/>
     </row>
-    <row r="18" s="46" customFormat="1" ht="15.15" spans="1:15">
+    <row r="18" s="46" customFormat="1" ht="14.25" spans="1:15">
       <c r="A18" s="49">
         <v>10</v>
       </c>
@@ -6381,7 +6392,7 @@
       <c r="N26" s="52"/>
       <c r="O26" s="52"/>
     </row>
-    <row r="27" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="27" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A27" s="53">
         <v>10000</v>
       </c>
@@ -6410,7 +6421,7 @@
       <c r="N27" s="57"/>
       <c r="O27" s="57"/>
     </row>
-    <row r="28" s="46" customFormat="1" ht="15.15" spans="1:15">
+    <row r="28" s="46" customFormat="1" ht="14.25" spans="1:15">
       <c r="A28" s="49">
         <v>10</v>
       </c>
@@ -6689,7 +6700,7 @@
       <c r="N36" s="52"/>
       <c r="O36" s="52"/>
     </row>
-    <row r="37" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="37" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A37" s="53">
         <v>10000</v>
       </c>
@@ -6718,7 +6729,7 @@
       <c r="N37" s="57"/>
       <c r="O37" s="57"/>
     </row>
-    <row r="38" s="46" customFormat="1" ht="15.15" spans="1:15">
+    <row r="38" s="46" customFormat="1" ht="14.25" spans="1:15">
       <c r="A38" s="49">
         <v>10</v>
       </c>
@@ -6997,7 +7008,7 @@
       <c r="N46" s="52"/>
       <c r="O46" s="52"/>
     </row>
-    <row r="47" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="47" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A47" s="53">
         <v>10000</v>
       </c>
@@ -7026,7 +7037,7 @@
       <c r="N47" s="57"/>
       <c r="O47" s="57"/>
     </row>
-    <row r="48" s="46" customFormat="1" ht="15.15" spans="1:15">
+    <row r="48" s="46" customFormat="1" ht="14.25" spans="1:15">
       <c r="A48" s="49">
         <v>10</v>
       </c>
@@ -7305,7 +7316,7 @@
       <c r="N56" s="52"/>
       <c r="O56" s="52"/>
     </row>
-    <row r="57" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="57" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A57" s="53">
         <v>10000</v>
       </c>
@@ -7334,7 +7345,7 @@
       <c r="N57" s="57"/>
       <c r="O57" s="57"/>
     </row>
-    <row r="58" s="46" customFormat="1" ht="15.15" spans="1:15">
+    <row r="58" s="46" customFormat="1" ht="14.25" spans="1:15">
       <c r="A58" s="49">
         <v>10</v>
       </c>
@@ -7613,7 +7624,7 @@
       <c r="N66" s="52"/>
       <c r="O66" s="52"/>
     </row>
-    <row r="67" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="67" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A67" s="53">
         <v>10000</v>
       </c>
@@ -7642,7 +7653,7 @@
       <c r="N67" s="57"/>
       <c r="O67" s="57"/>
     </row>
-    <row r="68" s="46" customFormat="1" ht="15.15" spans="1:15">
+    <row r="68" s="46" customFormat="1" ht="14.25" spans="1:15">
       <c r="A68" s="49">
         <v>10</v>
       </c>
@@ -7921,7 +7932,7 @@
       <c r="N76" s="52"/>
       <c r="O76" s="52"/>
     </row>
-    <row r="77" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="77" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A77" s="53">
         <v>10000</v>
       </c>
@@ -7950,7 +7961,7 @@
       <c r="N77" s="57"/>
       <c r="O77" s="57"/>
     </row>
-    <row r="78" s="46" customFormat="1" ht="15.15" spans="1:15">
+    <row r="78" s="46" customFormat="1" ht="14.25" spans="1:15">
       <c r="A78" s="49">
         <v>10</v>
       </c>
@@ -8229,7 +8240,7 @@
       <c r="N86" s="52"/>
       <c r="O86" s="52"/>
     </row>
-    <row r="87" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="87" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A87" s="53">
         <v>10000</v>
       </c>
@@ -8258,7 +8269,7 @@
       <c r="N87" s="57"/>
       <c r="O87" s="57"/>
     </row>
-    <row r="88" s="46" customFormat="1" ht="15.15" spans="1:15">
+    <row r="88" s="46" customFormat="1" ht="14.25" spans="1:15">
       <c r="A88" s="49">
         <v>10</v>
       </c>
@@ -8537,7 +8548,7 @@
       <c r="N96" s="52"/>
       <c r="O96" s="52"/>
     </row>
-    <row r="97" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="97" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A97" s="53">
         <v>10000</v>
       </c>
@@ -8566,7 +8577,7 @@
       <c r="N97" s="57"/>
       <c r="O97" s="57"/>
     </row>
-    <row r="98" s="46" customFormat="1" ht="15.15" spans="1:15">
+    <row r="98" s="46" customFormat="1" ht="14.25" spans="1:15">
       <c r="A98" s="49">
         <v>10</v>
       </c>
@@ -8845,7 +8856,7 @@
       <c r="N106" s="52"/>
       <c r="O106" s="52"/>
     </row>
-    <row r="107" s="47" customFormat="1" ht="15.15" spans="1:15">
+    <row r="107" s="47" customFormat="1" ht="14.25" spans="1:15">
       <c r="A107" s="53">
         <v>10000</v>
       </c>
@@ -8874,7 +8885,7 @@
       <c r="N107" s="57"/>
       <c r="O107" s="57"/>
     </row>
-    <row r="108" ht="15.15"/>
+    <row r="108" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -8890,7 +8901,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -9610,14 +9621,14 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="33"/>
     <col min="2" max="2" width="9.5" style="33" customWidth="1"/>
     <col min="3" max="3" width="11" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.62962962962963" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.63333333333333" style="33" customWidth="1"/>
     <col min="5" max="5" width="40.6666666666667" style="33" customWidth="1"/>
-    <col min="6" max="6" width="18.3796296296296" style="33" customWidth="1"/>
+    <col min="6" max="6" width="18.3833333333333" style="33" customWidth="1"/>
     <col min="7" max="7" width="9" style="33"/>
     <col min="8" max="16384" width="9" style="24"/>
   </cols>
@@ -9739,7 +9750,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.4" spans="1:7">
+    <row r="8" customFormat="1" ht="13.5" spans="1:7">
       <c r="A8" s="33">
         <v>2000</v>
       </c>
@@ -9762,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.4" spans="1:7">
+    <row r="9" customFormat="1" ht="13.5" spans="1:7">
       <c r="A9" s="33">
         <v>5000</v>
       </c>
@@ -9785,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.4" spans="1:7">
+    <row r="10" customFormat="1" ht="13.5" spans="1:7">
       <c r="A10" s="33">
         <v>10000</v>
       </c>
@@ -9808,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.4" spans="1:7">
+    <row r="11" customFormat="1" ht="13.5" spans="1:7">
       <c r="A11" s="33">
         <v>20000</v>
       </c>
@@ -9831,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="14.4" spans="1:7">
+    <row r="12" customFormat="1" ht="13.5" spans="1:7">
       <c r="A12" s="33">
         <v>50000</v>
       </c>
@@ -9854,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.4" spans="1:7">
+    <row r="13" customFormat="1" ht="13.5" spans="1:7">
       <c r="A13" s="33">
         <v>100000</v>
       </c>
@@ -9877,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.4" spans="1:7">
+    <row r="14" customFormat="1" ht="13.5" spans="1:7">
       <c r="A14" s="33">
         <v>200</v>
       </c>
@@ -9900,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.4" spans="1:7">
+    <row r="15" customFormat="1" ht="13.5" spans="1:7">
       <c r="A15" s="33">
         <v>500</v>
       </c>
@@ -9923,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.4" spans="1:7">
+    <row r="16" customFormat="1" ht="13.5" spans="1:7">
       <c r="A16" s="33">
         <v>1000</v>
       </c>
@@ -9946,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.4" spans="1:7">
+    <row r="17" customFormat="1" ht="13.5" spans="1:7">
       <c r="A17" s="33">
         <v>2000</v>
       </c>
@@ -9969,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.4" spans="1:7">
+    <row r="18" customFormat="1" ht="13.5" spans="1:7">
       <c r="A18" s="33">
         <v>5000</v>
       </c>
@@ -9992,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.4" spans="1:7">
+    <row r="19" customFormat="1" ht="13.5" spans="1:7">
       <c r="A19" s="33">
         <v>10000</v>
       </c>
@@ -10015,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.4" spans="1:7">
+    <row r="20" customFormat="1" ht="13.5" spans="1:7">
       <c r="A20" s="33">
         <v>20000</v>
       </c>
@@ -10038,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.4" spans="1:7">
+    <row r="21" customFormat="1" ht="13.5" spans="1:7">
       <c r="A21" s="33">
         <v>50000</v>
       </c>
@@ -10061,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="14.4" spans="1:7">
+    <row r="22" customFormat="1" ht="13.5" spans="1:7">
       <c r="A22" s="33">
         <v>100000</v>
       </c>
@@ -10084,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.4" spans="1:7">
+    <row r="23" customFormat="1" ht="13.5" spans="1:7">
       <c r="A23" s="33">
         <v>200</v>
       </c>
@@ -10107,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.4" spans="1:7">
+    <row r="24" customFormat="1" ht="13.5" spans="1:7">
       <c r="A24" s="33">
         <v>500</v>
       </c>
@@ -10130,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="14.4" spans="1:7">
+    <row r="25" customFormat="1" ht="13.5" spans="1:7">
       <c r="A25" s="33">
         <v>1000</v>
       </c>
@@ -10153,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.4" spans="1:7">
+    <row r="26" customFormat="1" ht="13.5" spans="1:7">
       <c r="A26" s="33">
         <v>2000</v>
       </c>
@@ -10176,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.4" spans="1:7">
+    <row r="27" customFormat="1" ht="13.5" spans="1:7">
       <c r="A27" s="33">
         <v>5000</v>
       </c>
@@ -10199,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.4" spans="1:7">
+    <row r="28" customFormat="1" ht="13.5" spans="1:7">
       <c r="A28" s="33">
         <v>10000</v>
       </c>
@@ -10222,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.4" spans="1:7">
+    <row r="29" customFormat="1" ht="13.5" spans="1:7">
       <c r="A29" s="33">
         <v>20000</v>
       </c>
@@ -10245,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="14.4" spans="1:7">
+    <row r="30" customFormat="1" ht="13.5" spans="1:7">
       <c r="A30" s="33">
         <v>50000</v>
       </c>
@@ -10268,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="14.4" spans="1:7">
+    <row r="31" customFormat="1" ht="13.5" spans="1:7">
       <c r="A31" s="33">
         <v>100000</v>
       </c>
@@ -10291,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.4" spans="1:7">
+    <row r="32" customFormat="1" ht="13.5" spans="1:7">
       <c r="A32" s="33">
         <v>200</v>
       </c>
@@ -10314,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.4" spans="1:7">
+    <row r="33" customFormat="1" ht="13.5" spans="1:7">
       <c r="A33" s="33">
         <v>500</v>
       </c>
@@ -10337,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.4" spans="1:7">
+    <row r="34" customFormat="1" ht="13.5" spans="1:7">
       <c r="A34" s="33">
         <v>1000</v>
       </c>
@@ -10360,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.4" spans="1:7">
+    <row r="35" customFormat="1" ht="13.5" spans="1:7">
       <c r="A35" s="33">
         <v>2000</v>
       </c>
@@ -10383,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.4" spans="1:7">
+    <row r="36" customFormat="1" ht="13.5" spans="1:7">
       <c r="A36" s="33">
         <v>5000</v>
       </c>
@@ -10406,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.4" spans="1:7">
+    <row r="37" customFormat="1" ht="13.5" spans="1:7">
       <c r="A37" s="33">
         <v>10000</v>
       </c>
@@ -10429,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.4" spans="1:7">
+    <row r="38" customFormat="1" ht="13.5" spans="1:7">
       <c r="A38" s="33">
         <v>20000</v>
       </c>
@@ -10452,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.4" spans="1:7">
+    <row r="39" customFormat="1" ht="13.5" spans="1:7">
       <c r="A39" s="33">
         <v>50000</v>
       </c>
@@ -10475,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.4" spans="1:7">
+    <row r="40" customFormat="1" ht="13.5" spans="1:7">
       <c r="A40" s="33">
         <v>100000</v>
       </c>
@@ -10498,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.4" spans="1:7">
+    <row r="41" customFormat="1" ht="13.5" spans="1:7">
       <c r="A41" s="33">
         <v>200</v>
       </c>
@@ -10521,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="14.4" spans="1:7">
+    <row r="42" customFormat="1" ht="13.5" spans="1:7">
       <c r="A42" s="33">
         <v>500</v>
       </c>
@@ -10544,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.4" spans="1:7">
+    <row r="43" customFormat="1" ht="13.5" spans="1:7">
       <c r="A43" s="33">
         <v>1000</v>
       </c>
@@ -10567,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.4" spans="1:7">
+    <row r="44" customFormat="1" ht="13.5" spans="1:7">
       <c r="A44" s="33">
         <v>2000</v>
       </c>
@@ -10590,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.4" spans="1:7">
+    <row r="45" customFormat="1" ht="13.5" spans="1:7">
       <c r="A45" s="33">
         <v>5000</v>
       </c>
@@ -10613,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.4" spans="1:7">
+    <row r="46" customFormat="1" ht="13.5" spans="1:7">
       <c r="A46" s="33">
         <v>10000</v>
       </c>
@@ -10636,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.4" spans="1:7">
+    <row r="47" customFormat="1" ht="13.5" spans="1:7">
       <c r="A47" s="33">
         <v>20000</v>
       </c>
@@ -10659,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.4" spans="1:7">
+    <row r="48" customFormat="1" ht="13.5" spans="1:7">
       <c r="A48" s="33">
         <v>50000</v>
       </c>
@@ -10682,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="14.4" spans="1:7">
+    <row r="49" customFormat="1" ht="13.5" spans="1:7">
       <c r="A49" s="33">
         <v>100000</v>
       </c>
@@ -10705,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.4" spans="1:7">
+    <row r="50" customFormat="1" ht="13.5" spans="1:7">
       <c r="A50" s="33">
         <v>200</v>
       </c>
@@ -10728,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="14.4" spans="1:7">
+    <row r="51" customFormat="1" ht="13.5" spans="1:7">
       <c r="A51" s="33">
         <v>500</v>
       </c>
@@ -10751,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="14.4" spans="1:7">
+    <row r="52" customFormat="1" ht="13.5" spans="1:7">
       <c r="A52" s="33">
         <v>1000</v>
       </c>
@@ -10774,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="14.4" spans="1:7">
+    <row r="53" customFormat="1" ht="13.5" spans="1:7">
       <c r="A53" s="33">
         <v>2000</v>
       </c>
@@ -10797,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="14.4" spans="1:7">
+    <row r="54" customFormat="1" ht="13.5" spans="1:7">
       <c r="A54" s="33">
         <v>5000</v>
       </c>
@@ -10820,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="14.4" spans="1:7">
+    <row r="55" customFormat="1" ht="13.5" spans="1:7">
       <c r="A55" s="33">
         <v>10000</v>
       </c>
@@ -10843,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.4" spans="1:7">
+    <row r="56" customFormat="1" ht="13.5" spans="1:7">
       <c r="A56" s="33">
         <v>20000</v>
       </c>
@@ -10866,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="14.4" spans="1:7">
+    <row r="57" customFormat="1" ht="13.5" spans="1:7">
       <c r="A57" s="33">
         <v>50000</v>
       </c>
@@ -10889,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="14.4" spans="1:7">
+    <row r="58" customFormat="1" ht="13.5" spans="1:7">
       <c r="A58" s="33">
         <v>100000</v>
       </c>
@@ -10912,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="14.4" spans="1:7">
+    <row r="59" customFormat="1" ht="13.5" spans="1:7">
       <c r="A59" s="33">
         <v>200</v>
       </c>
@@ -10935,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="1" ht="14.4" spans="1:7">
+    <row r="60" customFormat="1" ht="13.5" spans="1:7">
       <c r="A60" s="33">
         <v>500</v>
       </c>
@@ -10958,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="1" ht="14.4" spans="1:7">
+    <row r="61" customFormat="1" ht="13.5" spans="1:7">
       <c r="A61" s="33">
         <v>1000</v>
       </c>
@@ -10981,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="1" ht="14.4" spans="1:7">
+    <row r="62" customFormat="1" ht="13.5" spans="1:7">
       <c r="A62" s="33">
         <v>2000</v>
       </c>
@@ -11004,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="1" ht="14.4" spans="1:7">
+    <row r="63" customFormat="1" ht="13.5" spans="1:7">
       <c r="A63" s="33">
         <v>5000</v>
       </c>
@@ -11027,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="1" ht="14.4" spans="1:7">
+    <row r="64" customFormat="1" ht="13.5" spans="1:7">
       <c r="A64" s="33">
         <v>10000</v>
       </c>
@@ -11050,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="1" ht="14.4" spans="1:7">
+    <row r="65" customFormat="1" ht="13.5" spans="1:7">
       <c r="A65" s="33">
         <v>20000</v>
       </c>
@@ -11073,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="1" ht="14.4" spans="1:7">
+    <row r="66" customFormat="1" ht="13.5" spans="1:7">
       <c r="A66" s="33">
         <v>50000</v>
       </c>
@@ -11096,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="1" ht="14.4" spans="1:7">
+    <row r="67" customFormat="1" ht="13.5" spans="1:7">
       <c r="A67" s="33">
         <v>100000</v>
       </c>
@@ -11119,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="1" ht="14.4" spans="1:7">
+    <row r="68" customFormat="1" ht="13.5" spans="1:7">
       <c r="A68" s="33">
         <v>200</v>
       </c>
@@ -11142,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="1" ht="14.4" spans="1:7">
+    <row r="69" customFormat="1" ht="13.5" spans="1:7">
       <c r="A69" s="33">
         <v>500</v>
       </c>
@@ -11165,7 +11176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="1" ht="14.4" spans="1:7">
+    <row r="70" customFormat="1" ht="13.5" spans="1:7">
       <c r="A70" s="33">
         <v>1000</v>
       </c>
@@ -11188,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="1" ht="14.4" spans="1:7">
+    <row r="71" customFormat="1" ht="13.5" spans="1:7">
       <c r="A71" s="33"/>
       <c r="B71" s="33">
         <v>2</v>
@@ -11209,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="1" ht="14.4" spans="1:7">
+    <row r="72" customFormat="1" ht="13.5" spans="1:7">
       <c r="A72" s="33"/>
       <c r="B72" s="33">
         <v>2</v>
@@ -11230,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="1" ht="14.4" spans="1:7">
+    <row r="73" customFormat="1" ht="13.5" spans="1:7">
       <c r="A73" s="33"/>
       <c r="B73" s="33">
         <v>2</v>
@@ -11251,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="1" ht="14.4" spans="1:7">
+    <row r="74" customFormat="1" ht="13.5" spans="1:7">
       <c r="A74" s="33"/>
       <c r="B74" s="33">
         <v>2</v>
@@ -11272,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="1" ht="14.4" spans="1:7">
+    <row r="75" customFormat="1" ht="13.5" spans="1:7">
       <c r="A75" s="33"/>
       <c r="B75" s="33">
         <v>2</v>
@@ -11293,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="1" ht="14.4" spans="1:7">
+    <row r="76" customFormat="1" ht="13.5" spans="1:7">
       <c r="A76" s="33"/>
       <c r="B76" s="33">
         <v>2</v>
@@ -11314,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="1" ht="14.4" spans="1:7">
+    <row r="77" customFormat="1" ht="13.5" spans="1:7">
       <c r="A77" s="33">
         <v>200</v>
       </c>
@@ -11337,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="1" ht="14.4" spans="1:7">
+    <row r="78" customFormat="1" ht="13.5" spans="1:7">
       <c r="A78" s="33">
         <v>500</v>
       </c>
@@ -11360,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="1" ht="14.4" spans="1:7">
+    <row r="79" customFormat="1" ht="13.5" spans="1:7">
       <c r="A79" s="33">
         <v>1000</v>
       </c>
@@ -11383,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="1" ht="14.4" spans="1:7">
+    <row r="80" customFormat="1" ht="13.5" spans="1:7">
       <c r="A80" s="33"/>
       <c r="B80" s="33">
         <v>2</v>
@@ -11404,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="14.4" spans="1:7">
+    <row r="81" customFormat="1" ht="13.5" spans="1:7">
       <c r="A81" s="33"/>
       <c r="B81" s="33">
         <v>2</v>
@@ -11425,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="1" ht="14.4" spans="1:7">
+    <row r="82" customFormat="1" ht="13.5" spans="1:7">
       <c r="A82" s="33"/>
       <c r="B82" s="33">
         <v>2</v>
@@ -11446,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="1" ht="14.4" spans="1:7">
+    <row r="83" customFormat="1" ht="13.5" spans="1:7">
       <c r="A83" s="33"/>
       <c r="B83" s="33">
         <v>2</v>
@@ -11467,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="1" ht="14.4" spans="1:7">
+    <row r="84" customFormat="1" ht="13.5" spans="1:7">
       <c r="A84" s="33"/>
       <c r="B84" s="33">
         <v>2</v>
@@ -11488,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="1" ht="14.4" spans="1:7">
+    <row r="85" customFormat="1" ht="13.5" spans="1:7">
       <c r="A85" s="33"/>
       <c r="B85" s="33">
         <v>2</v>
@@ -11509,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="1" ht="14.4" spans="1:7">
+    <row r="86" customFormat="1" ht="13.5" spans="1:7">
       <c r="A86" s="33">
         <v>200</v>
       </c>
@@ -11532,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="1" ht="14.4" spans="1:7">
+    <row r="87" customFormat="1" ht="13.5" spans="1:7">
       <c r="A87" s="33">
         <v>500</v>
       </c>
@@ -11555,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="1" ht="14.4" spans="1:7">
+    <row r="88" customFormat="1" ht="13.5" spans="1:7">
       <c r="A88" s="33">
         <v>1000</v>
       </c>
@@ -11578,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="1" ht="14.4" spans="1:7">
+    <row r="89" customFormat="1" ht="13.5" spans="1:7">
       <c r="A89" s="33"/>
       <c r="B89" s="33">
         <v>2</v>
@@ -11599,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="1" ht="14.4" spans="1:7">
+    <row r="90" customFormat="1" ht="13.5" spans="1:7">
       <c r="A90" s="33"/>
       <c r="B90" s="33">
         <v>2</v>
@@ -11620,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="1" ht="14.4" spans="1:7">
+    <row r="91" customFormat="1" ht="13.5" spans="1:7">
       <c r="A91" s="33"/>
       <c r="B91" s="33">
         <v>2</v>
@@ -11641,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="1" ht="14.4" spans="1:7">
+    <row r="92" customFormat="1" ht="13.5" spans="1:7">
       <c r="A92" s="33"/>
       <c r="B92" s="33">
         <v>2</v>
@@ -11662,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="1" ht="14.4" spans="1:7">
+    <row r="93" customFormat="1" ht="13.5" spans="1:7">
       <c r="A93" s="33"/>
       <c r="B93" s="33">
         <v>2</v>
@@ -11683,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="1" ht="14.4" spans="1:7">
+    <row r="94" customFormat="1" ht="13.5" spans="1:7">
       <c r="A94" s="33"/>
       <c r="B94" s="33">
         <v>2</v>
@@ -11704,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="1" ht="14.4" spans="1:7">
+    <row r="95" customFormat="1" ht="13.5" spans="1:7">
       <c r="A95" s="33">
         <v>200</v>
       </c>
@@ -11727,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="1" ht="14.4" spans="1:7">
+    <row r="96" customFormat="1" ht="13.5" spans="1:7">
       <c r="A96" s="33">
         <v>500</v>
       </c>
@@ -11750,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="1" ht="14.4" spans="1:7">
+    <row r="97" customFormat="1" ht="13.5" spans="1:7">
       <c r="A97" s="33">
         <v>1000</v>
       </c>
@@ -11773,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="1" ht="14.4" spans="1:7">
+    <row r="98" customFormat="1" ht="13.5" spans="1:7">
       <c r="A98" s="33"/>
       <c r="B98" s="33">
         <v>2</v>
@@ -11794,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="1" ht="14.4" spans="1:7">
+    <row r="99" customFormat="1" ht="13.5" spans="1:7">
       <c r="A99" s="33"/>
       <c r="B99" s="33">
         <v>2</v>
@@ -11815,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="1" ht="14.4" spans="1:7">
+    <row r="100" customFormat="1" ht="13.5" spans="1:7">
       <c r="A100" s="33"/>
       <c r="B100" s="33">
         <v>2</v>
@@ -11836,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="1" ht="14.4" spans="1:7">
+    <row r="101" customFormat="1" ht="13.5" spans="1:7">
       <c r="A101" s="33"/>
       <c r="B101" s="33">
         <v>2</v>
@@ -11857,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="1" ht="14.4" spans="1:7">
+    <row r="102" customFormat="1" ht="13.5" spans="1:7">
       <c r="A102" s="33"/>
       <c r="B102" s="33">
         <v>2</v>
@@ -11878,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="1" ht="14.4" spans="1:7">
+    <row r="103" customFormat="1" ht="13.5" spans="1:7">
       <c r="A103" s="33"/>
       <c r="B103" s="33">
         <v>2</v>
@@ -11899,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="1" ht="14.4" spans="1:7">
+    <row r="104" customFormat="1" ht="13.5" spans="1:7">
       <c r="A104" s="33">
         <v>200</v>
       </c>
@@ -11922,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="1" ht="14.4" spans="1:7">
+    <row r="105" customFormat="1" ht="13.5" spans="1:7">
       <c r="A105" s="33">
         <v>500</v>
       </c>
@@ -11945,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="1" ht="14.4" spans="1:7">
+    <row r="106" customFormat="1" ht="13.5" spans="1:7">
       <c r="A106" s="33">
         <v>1000</v>
       </c>
@@ -11968,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="1" ht="14.4" spans="1:7">
+    <row r="107" customFormat="1" ht="13.5" spans="1:7">
       <c r="A107" s="33"/>
       <c r="B107" s="33">
         <v>2</v>
@@ -11989,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="1" ht="14.4" spans="1:7">
+    <row r="108" customFormat="1" ht="13.5" spans="1:7">
       <c r="A108" s="33"/>
       <c r="B108" s="33">
         <v>2</v>
@@ -12010,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="1" ht="14.4" spans="1:7">
+    <row r="109" customFormat="1" ht="13.5" spans="1:7">
       <c r="A109" s="33"/>
       <c r="B109" s="33">
         <v>2</v>
@@ -12031,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customFormat="1" ht="14.4" spans="1:7">
+    <row r="110" customFormat="1" ht="13.5" spans="1:7">
       <c r="A110" s="33"/>
       <c r="B110" s="33">
         <v>2</v>
@@ -12052,7 +12063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customFormat="1" ht="14.4" spans="1:7">
+    <row r="111" customFormat="1" ht="13.5" spans="1:7">
       <c r="A111" s="33"/>
       <c r="B111" s="33">
         <v>2</v>
@@ -12073,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customFormat="1" ht="14.4" spans="1:7">
+    <row r="112" customFormat="1" ht="13.5" spans="1:7">
       <c r="A112" s="33"/>
       <c r="B112" s="33">
         <v>2</v>
@@ -12094,7 +12105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="1" ht="14.4" spans="1:7">
+    <row r="113" customFormat="1" ht="13.5" spans="1:7">
       <c r="A113" s="33">
         <v>200</v>
       </c>
@@ -12117,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" customFormat="1" ht="14.4" spans="1:7">
+    <row r="114" customFormat="1" ht="13.5" spans="1:7">
       <c r="A114" s="33">
         <v>500</v>
       </c>
@@ -12140,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="1" ht="14.4" spans="1:7">
+    <row r="115" customFormat="1" ht="13.5" spans="1:7">
       <c r="A115" s="33">
         <v>1000</v>
       </c>
@@ -12163,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="1" ht="14.4" spans="1:7">
+    <row r="116" customFormat="1" ht="13.5" spans="1:7">
       <c r="A116" s="33"/>
       <c r="B116" s="33">
         <v>2</v>
@@ -12184,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="1" ht="14.4" spans="1:7">
+    <row r="117" customFormat="1" ht="13.5" spans="1:7">
       <c r="A117" s="33"/>
       <c r="B117" s="33">
         <v>2</v>
@@ -12205,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="1" ht="14.4" spans="1:7">
+    <row r="118" customFormat="1" ht="13.5" spans="1:7">
       <c r="A118" s="33"/>
       <c r="B118" s="33">
         <v>2</v>
@@ -12226,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="1" ht="14.4" spans="1:7">
+    <row r="119" customFormat="1" ht="13.5" spans="1:7">
       <c r="A119" s="33"/>
       <c r="B119" s="33">
         <v>2</v>
@@ -12247,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="1" ht="14.4" spans="1:7">
+    <row r="120" customFormat="1" ht="13.5" spans="1:7">
       <c r="A120" s="33"/>
       <c r="B120" s="33">
         <v>2</v>
@@ -12268,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="1" ht="14.4" spans="1:7">
+    <row r="121" customFormat="1" ht="13.5" spans="1:7">
       <c r="A121" s="33"/>
       <c r="B121" s="33">
         <v>2</v>
@@ -12289,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" customFormat="1" ht="14.4" spans="1:7">
+    <row r="122" customFormat="1" ht="13.5" spans="1:7">
       <c r="A122" s="33">
         <v>200</v>
       </c>
@@ -12312,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="1" ht="14.4" spans="1:7">
+    <row r="123" customFormat="1" ht="13.5" spans="1:7">
       <c r="A123" s="33">
         <v>500</v>
       </c>
@@ -12335,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" customFormat="1" ht="14.4" spans="1:7">
+    <row r="124" customFormat="1" ht="13.5" spans="1:7">
       <c r="A124" s="33">
         <v>1000</v>
       </c>
@@ -12358,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" customFormat="1" ht="14.4" spans="1:7">
+    <row r="125" customFormat="1" ht="13.5" spans="1:7">
       <c r="A125" s="33"/>
       <c r="B125" s="33">
         <v>2</v>
@@ -12379,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" customFormat="1" ht="14.4" spans="1:7">
+    <row r="126" customFormat="1" ht="13.5" spans="1:7">
       <c r="A126" s="33"/>
       <c r="B126" s="33">
         <v>2</v>
@@ -12400,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" customFormat="1" ht="14.4" spans="1:7">
+    <row r="127" customFormat="1" ht="13.5" spans="1:7">
       <c r="A127" s="33"/>
       <c r="B127" s="33">
         <v>2</v>
@@ -12421,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" customFormat="1" ht="14.4" spans="1:7">
+    <row r="128" customFormat="1" ht="13.5" spans="1:7">
       <c r="A128" s="33"/>
       <c r="B128" s="33">
         <v>2</v>
@@ -12442,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" customFormat="1" ht="14.4" spans="1:7">
+    <row r="129" customFormat="1" ht="13.5" spans="1:7">
       <c r="A129" s="33"/>
       <c r="B129" s="33">
         <v>2</v>
@@ -12463,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" customFormat="1" ht="14.4" spans="1:7">
+    <row r="130" customFormat="1" ht="13.5" spans="1:7">
       <c r="A130" s="33"/>
       <c r="B130" s="33">
         <v>2</v>
@@ -12484,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" customFormat="1" ht="14.4" spans="1:7">
+    <row r="131" customFormat="1" ht="13.5" spans="1:7">
       <c r="A131" s="33">
         <v>200</v>
       </c>
@@ -12507,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="1" ht="14.4" spans="1:7">
+    <row r="132" customFormat="1" ht="13.5" spans="1:7">
       <c r="A132" s="33">
         <v>500</v>
       </c>
@@ -12530,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" customFormat="1" ht="14.4" spans="1:7">
+    <row r="133" customFormat="1" ht="13.5" spans="1:7">
       <c r="A133" s="33">
         <v>1000</v>
       </c>
@@ -12570,14 +12581,14 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="33"/>
     <col min="2" max="2" width="9.5" style="33" customWidth="1"/>
     <col min="3" max="3" width="11" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.62962962962963" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.1296296296296" style="33" customWidth="1"/>
-    <col min="6" max="6" width="18.3796296296296" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.63333333333333" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.1333333333333" style="33" customWidth="1"/>
+    <col min="6" max="6" width="18.3833333333333" style="33" customWidth="1"/>
     <col min="7" max="7" width="9" style="33"/>
     <col min="8" max="16384" width="9" style="24"/>
   </cols>
@@ -12699,7 +12710,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.4" spans="1:7">
+    <row r="8" customFormat="1" ht="13.5" spans="1:7">
       <c r="A8" s="33">
         <v>2000</v>
       </c>
@@ -12722,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.4" spans="1:7">
+    <row r="9" customFormat="1" ht="13.5" spans="1:7">
       <c r="A9" s="33">
         <v>5000</v>
       </c>
@@ -12745,7 +12756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.4" spans="1:7">
+    <row r="10" customFormat="1" ht="13.5" spans="1:7">
       <c r="A10" s="33">
         <v>10000</v>
       </c>
@@ -12768,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.4" spans="1:7">
+    <row r="11" customFormat="1" ht="13.5" spans="1:7">
       <c r="A11" s="33">
         <v>20000</v>
       </c>
@@ -12791,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="14.4" spans="1:7">
+    <row r="12" customFormat="1" ht="13.5" spans="1:7">
       <c r="A12" s="33">
         <v>50000</v>
       </c>
@@ -12814,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.4" spans="1:7">
+    <row r="13" customFormat="1" ht="13.5" spans="1:7">
       <c r="A13" s="33">
         <v>100000</v>
       </c>
@@ -12837,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.4" spans="1:7">
+    <row r="14" customFormat="1" ht="13.5" spans="1:7">
       <c r="A14" s="33">
         <v>200</v>
       </c>
@@ -12860,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.4" spans="1:7">
+    <row r="15" customFormat="1" ht="13.5" spans="1:7">
       <c r="A15" s="33">
         <v>500</v>
       </c>
@@ -12883,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.4" spans="1:7">
+    <row r="16" customFormat="1" ht="13.5" spans="1:7">
       <c r="A16" s="33">
         <v>1000</v>
       </c>
@@ -12906,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.4" spans="1:7">
+    <row r="17" customFormat="1" ht="13.5" spans="1:7">
       <c r="A17" s="33">
         <v>2000</v>
       </c>
@@ -12929,7 +12940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.4" spans="1:7">
+    <row r="18" customFormat="1" ht="13.5" spans="1:7">
       <c r="A18" s="33">
         <v>5000</v>
       </c>
@@ -12952,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.4" spans="1:7">
+    <row r="19" customFormat="1" ht="13.5" spans="1:7">
       <c r="A19" s="33">
         <v>10000</v>
       </c>
@@ -12975,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.4" spans="1:7">
+    <row r="20" customFormat="1" ht="13.5" spans="1:7">
       <c r="A20" s="33">
         <v>20000</v>
       </c>
@@ -12998,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.4" spans="1:7">
+    <row r="21" customFormat="1" ht="13.5" spans="1:7">
       <c r="A21" s="33">
         <v>50000</v>
       </c>
@@ -13021,7 +13032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="14.4" spans="1:7">
+    <row r="22" customFormat="1" ht="13.5" spans="1:7">
       <c r="A22" s="33">
         <v>100000</v>
       </c>
@@ -13044,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.4" spans="1:7">
+    <row r="23" customFormat="1" ht="13.5" spans="1:7">
       <c r="A23" s="33">
         <v>200</v>
       </c>
@@ -13067,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.4" spans="1:7">
+    <row r="24" customFormat="1" ht="13.5" spans="1:7">
       <c r="A24" s="33">
         <v>500</v>
       </c>
@@ -13090,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="14.4" spans="1:7">
+    <row r="25" customFormat="1" ht="13.5" spans="1:7">
       <c r="A25" s="33">
         <v>1000</v>
       </c>
@@ -13113,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.4" spans="1:7">
+    <row r="26" customFormat="1" ht="13.5" spans="1:7">
       <c r="A26" s="33">
         <v>2000</v>
       </c>
@@ -13136,7 +13147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.4" spans="1:7">
+    <row r="27" customFormat="1" ht="13.5" spans="1:7">
       <c r="A27" s="33">
         <v>5000</v>
       </c>
@@ -13159,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.4" spans="1:7">
+    <row r="28" customFormat="1" ht="13.5" spans="1:7">
       <c r="A28" s="33">
         <v>10000</v>
       </c>
@@ -13182,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.4" spans="1:7">
+    <row r="29" customFormat="1" ht="13.5" spans="1:7">
       <c r="A29" s="33">
         <v>20000</v>
       </c>
@@ -13205,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="14.4" spans="1:7">
+    <row r="30" customFormat="1" ht="13.5" spans="1:7">
       <c r="A30" s="33">
         <v>50000</v>
       </c>
@@ -13228,7 +13239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="14.4" spans="1:7">
+    <row r="31" customFormat="1" ht="13.5" spans="1:7">
       <c r="A31" s="33">
         <v>100000</v>
       </c>
@@ -13251,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.4" spans="1:7">
+    <row r="32" customFormat="1" ht="13.5" spans="1:7">
       <c r="A32" s="33">
         <v>200</v>
       </c>
@@ -13274,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.4" spans="1:7">
+    <row r="33" customFormat="1" ht="13.5" spans="1:7">
       <c r="A33" s="33">
         <v>500</v>
       </c>
@@ -13297,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.4" spans="1:7">
+    <row r="34" customFormat="1" ht="13.5" spans="1:7">
       <c r="A34" s="33">
         <v>1000</v>
       </c>
@@ -13320,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.4" spans="1:7">
+    <row r="35" customFormat="1" ht="13.5" spans="1:7">
       <c r="A35" s="33">
         <v>2000</v>
       </c>
@@ -13343,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.4" spans="1:7">
+    <row r="36" customFormat="1" ht="13.5" spans="1:7">
       <c r="A36" s="33">
         <v>5000</v>
       </c>
@@ -13366,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.4" spans="1:7">
+    <row r="37" customFormat="1" ht="13.5" spans="1:7">
       <c r="A37" s="33">
         <v>10000</v>
       </c>
@@ -13389,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.4" spans="1:7">
+    <row r="38" customFormat="1" ht="13.5" spans="1:7">
       <c r="A38" s="33">
         <v>20000</v>
       </c>
@@ -13412,7 +13423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.4" spans="1:7">
+    <row r="39" customFormat="1" ht="13.5" spans="1:7">
       <c r="A39" s="33">
         <v>50000</v>
       </c>
@@ -13435,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.4" spans="1:7">
+    <row r="40" customFormat="1" ht="13.5" spans="1:7">
       <c r="A40" s="33">
         <v>100000</v>
       </c>
@@ -13458,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.4" spans="1:7">
+    <row r="41" customFormat="1" ht="13.5" spans="1:7">
       <c r="A41" s="33">
         <v>200</v>
       </c>
@@ -13481,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="14.4" spans="1:7">
+    <row r="42" customFormat="1" ht="13.5" spans="1:7">
       <c r="A42" s="33">
         <v>500</v>
       </c>
@@ -13504,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.4" spans="1:7">
+    <row r="43" customFormat="1" ht="13.5" spans="1:7">
       <c r="A43" s="33">
         <v>1000</v>
       </c>
@@ -13527,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.4" spans="1:7">
+    <row r="44" customFormat="1" ht="13.5" spans="1:7">
       <c r="A44" s="33">
         <v>2000</v>
       </c>
@@ -13550,7 +13561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.4" spans="1:7">
+    <row r="45" customFormat="1" ht="13.5" spans="1:7">
       <c r="A45" s="33">
         <v>5000</v>
       </c>
@@ -13573,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.4" spans="1:7">
+    <row r="46" customFormat="1" ht="13.5" spans="1:7">
       <c r="A46" s="33">
         <v>10000</v>
       </c>
@@ -13596,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.4" spans="1:7">
+    <row r="47" customFormat="1" ht="13.5" spans="1:7">
       <c r="A47" s="33">
         <v>20000</v>
       </c>
@@ -13619,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.4" spans="1:7">
+    <row r="48" customFormat="1" ht="13.5" spans="1:7">
       <c r="A48" s="33">
         <v>50000</v>
       </c>
@@ -13642,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="14.4" spans="1:7">
+    <row r="49" customFormat="1" ht="13.5" spans="1:7">
       <c r="A49" s="33">
         <v>100000</v>
       </c>
@@ -13665,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.4" spans="1:7">
+    <row r="50" customFormat="1" ht="13.5" spans="1:7">
       <c r="A50" s="33">
         <v>200</v>
       </c>
@@ -13688,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="14.4" spans="1:7">
+    <row r="51" customFormat="1" ht="13.5" spans="1:7">
       <c r="A51" s="33">
         <v>500</v>
       </c>
@@ -13711,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="14.4" spans="1:7">
+    <row r="52" customFormat="1" ht="13.5" spans="1:7">
       <c r="A52" s="33">
         <v>1000</v>
       </c>
@@ -13734,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="14.4" spans="1:7">
+    <row r="53" customFormat="1" ht="13.5" spans="1:7">
       <c r="A53" s="33">
         <v>2000</v>
       </c>
@@ -13757,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="14.4" spans="1:7">
+    <row r="54" customFormat="1" ht="13.5" spans="1:7">
       <c r="A54" s="33">
         <v>5000</v>
       </c>
@@ -13780,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="14.4" spans="1:7">
+    <row r="55" customFormat="1" ht="13.5" spans="1:7">
       <c r="A55" s="33">
         <v>10000</v>
       </c>
@@ -13803,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.4" spans="1:7">
+    <row r="56" customFormat="1" ht="13.5" spans="1:7">
       <c r="A56" s="33">
         <v>20000</v>
       </c>
@@ -13826,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="14.4" spans="1:7">
+    <row r="57" customFormat="1" ht="13.5" spans="1:7">
       <c r="A57" s="33">
         <v>50000</v>
       </c>
@@ -13849,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="14.4" spans="1:7">
+    <row r="58" customFormat="1" ht="13.5" spans="1:7">
       <c r="A58" s="33">
         <v>100000</v>
       </c>
@@ -13872,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="14.4" spans="1:7">
+    <row r="59" customFormat="1" ht="13.5" spans="1:7">
       <c r="A59" s="33">
         <v>200</v>
       </c>
@@ -13895,7 +13906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="1" ht="14.4" spans="1:7">
+    <row r="60" customFormat="1" ht="13.5" spans="1:7">
       <c r="A60" s="33">
         <v>500</v>
       </c>
@@ -13918,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="1" ht="14.4" spans="1:7">
+    <row r="61" customFormat="1" ht="13.5" spans="1:7">
       <c r="A61" s="33">
         <v>1000</v>
       </c>
@@ -13941,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="1" ht="14.4" spans="1:7">
+    <row r="62" customFormat="1" ht="13.5" spans="1:7">
       <c r="A62" s="33">
         <v>2000</v>
       </c>
@@ -13964,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="1" ht="14.4" spans="1:7">
+    <row r="63" customFormat="1" ht="13.5" spans="1:7">
       <c r="A63" s="33">
         <v>5000</v>
       </c>
@@ -13987,7 +13998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="1" ht="14.4" spans="1:7">
+    <row r="64" customFormat="1" ht="13.5" spans="1:7">
       <c r="A64" s="33">
         <v>10000</v>
       </c>
@@ -14010,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="1" ht="14.4" spans="1:7">
+    <row r="65" customFormat="1" ht="13.5" spans="1:7">
       <c r="A65" s="33">
         <v>20000</v>
       </c>
@@ -14033,7 +14044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="1" ht="14.4" spans="1:7">
+    <row r="66" customFormat="1" ht="13.5" spans="1:7">
       <c r="A66" s="33">
         <v>50000</v>
       </c>
@@ -14056,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="1" ht="14.4" spans="1:7">
+    <row r="67" customFormat="1" ht="13.5" spans="1:7">
       <c r="A67" s="33">
         <v>100000</v>
       </c>
@@ -14079,7 +14090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="1" ht="14.4" spans="1:7">
+    <row r="68" customFormat="1" ht="13.5" spans="1:7">
       <c r="A68" s="33">
         <v>200</v>
       </c>
@@ -14102,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="1" ht="14.4" spans="1:7">
+    <row r="69" customFormat="1" ht="13.5" spans="1:7">
       <c r="A69" s="33">
         <v>500</v>
       </c>
@@ -14125,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="1" ht="14.4" spans="1:7">
+    <row r="70" customFormat="1" ht="13.5" spans="1:7">
       <c r="A70" s="33">
         <v>1000</v>
       </c>
@@ -14148,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="1" ht="14.4" spans="1:7">
+    <row r="71" customFormat="1" ht="13.5" spans="1:7">
       <c r="A71" s="33"/>
       <c r="B71" s="33">
         <v>2</v>
@@ -14169,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="1" ht="14.4" spans="1:7">
+    <row r="72" customFormat="1" ht="13.5" spans="1:7">
       <c r="A72" s="33"/>
       <c r="B72" s="33">
         <v>2</v>
@@ -14190,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="1" ht="14.4" spans="1:7">
+    <row r="73" customFormat="1" ht="13.5" spans="1:7">
       <c r="A73" s="33"/>
       <c r="B73" s="33">
         <v>2</v>
@@ -14211,7 +14222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="1" ht="14.4" spans="1:7">
+    <row r="74" customFormat="1" ht="13.5" spans="1:7">
       <c r="A74" s="33"/>
       <c r="B74" s="33">
         <v>2</v>
@@ -14232,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="1" ht="14.4" spans="1:7">
+    <row r="75" customFormat="1" ht="13.5" spans="1:7">
       <c r="A75" s="33"/>
       <c r="B75" s="33">
         <v>2</v>
@@ -14253,7 +14264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="1" ht="14.4" spans="1:7">
+    <row r="76" customFormat="1" ht="13.5" spans="1:7">
       <c r="A76" s="33"/>
       <c r="B76" s="33">
         <v>2</v>
@@ -14274,7 +14285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="1" ht="14.4" spans="1:7">
+    <row r="77" customFormat="1" ht="13.5" spans="1:7">
       <c r="A77" s="33">
         <v>200</v>
       </c>
@@ -14297,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="1" ht="14.4" spans="1:7">
+    <row r="78" customFormat="1" ht="13.5" spans="1:7">
       <c r="A78" s="33">
         <v>500</v>
       </c>
@@ -14320,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="1" ht="14.4" spans="1:7">
+    <row r="79" customFormat="1" ht="13.5" spans="1:7">
       <c r="A79" s="33">
         <v>1000</v>
       </c>
@@ -14343,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="1" ht="14.4" spans="1:7">
+    <row r="80" customFormat="1" ht="13.5" spans="1:7">
       <c r="A80" s="33"/>
       <c r="B80" s="33">
         <v>2</v>
@@ -14364,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="14.4" spans="1:7">
+    <row r="81" customFormat="1" ht="13.5" spans="1:7">
       <c r="A81" s="33"/>
       <c r="B81" s="33">
         <v>2</v>
@@ -14385,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="1" ht="14.4" spans="1:7">
+    <row r="82" customFormat="1" ht="13.5" spans="1:7">
       <c r="A82" s="33"/>
       <c r="B82" s="33">
         <v>2</v>
@@ -14406,7 +14417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="1" ht="14.4" spans="1:7">
+    <row r="83" customFormat="1" ht="13.5" spans="1:7">
       <c r="A83" s="33"/>
       <c r="B83" s="33">
         <v>2</v>
@@ -14427,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="1" ht="14.4" spans="1:7">
+    <row r="84" customFormat="1" ht="13.5" spans="1:7">
       <c r="A84" s="33"/>
       <c r="B84" s="33">
         <v>2</v>
@@ -14448,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="1" ht="14.4" spans="1:7">
+    <row r="85" customFormat="1" ht="13.5" spans="1:7">
       <c r="A85" s="33"/>
       <c r="B85" s="33">
         <v>2</v>
@@ -14469,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="1" ht="14.4" spans="1:7">
+    <row r="86" customFormat="1" ht="13.5" spans="1:7">
       <c r="A86" s="33">
         <v>200</v>
       </c>
@@ -14492,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="1" ht="14.4" spans="1:7">
+    <row r="87" customFormat="1" ht="13.5" spans="1:7">
       <c r="A87" s="33">
         <v>500</v>
       </c>
@@ -14515,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="1" ht="14.4" spans="1:7">
+    <row r="88" customFormat="1" ht="13.5" spans="1:7">
       <c r="A88" s="33">
         <v>1000</v>
       </c>
@@ -14538,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="1" ht="14.4" spans="1:7">
+    <row r="89" customFormat="1" ht="13.5" spans="1:7">
       <c r="A89" s="33"/>
       <c r="B89" s="33">
         <v>2</v>
@@ -14559,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="1" ht="14.4" spans="1:7">
+    <row r="90" customFormat="1" ht="13.5" spans="1:7">
       <c r="A90" s="33"/>
       <c r="B90" s="33">
         <v>2</v>
@@ -14580,7 +14591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="1" ht="14.4" spans="1:7">
+    <row r="91" customFormat="1" ht="13.5" spans="1:7">
       <c r="A91" s="33"/>
       <c r="B91" s="33">
         <v>2</v>
@@ -14601,7 +14612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="1" ht="14.4" spans="1:7">
+    <row r="92" customFormat="1" ht="13.5" spans="1:7">
       <c r="A92" s="33"/>
       <c r="B92" s="33">
         <v>2</v>
@@ -14622,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="1" ht="14.4" spans="1:7">
+    <row r="93" customFormat="1" ht="13.5" spans="1:7">
       <c r="A93" s="33"/>
       <c r="B93" s="33">
         <v>2</v>
@@ -14643,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="1" ht="14.4" spans="1:7">
+    <row r="94" customFormat="1" ht="13.5" spans="1:7">
       <c r="A94" s="33"/>
       <c r="B94" s="33">
         <v>2</v>
@@ -14664,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="1" ht="14.4" spans="1:7">
+    <row r="95" customFormat="1" ht="13.5" spans="1:7">
       <c r="A95" s="33">
         <v>200</v>
       </c>
@@ -14687,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="1" ht="14.4" spans="1:7">
+    <row r="96" customFormat="1" ht="13.5" spans="1:7">
       <c r="A96" s="33">
         <v>500</v>
       </c>
@@ -14710,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="1" ht="14.4" spans="1:7">
+    <row r="97" customFormat="1" ht="13.5" spans="1:7">
       <c r="A97" s="33">
         <v>1000</v>
       </c>
@@ -14733,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="1" ht="14.4" spans="1:7">
+    <row r="98" customFormat="1" ht="13.5" spans="1:7">
       <c r="A98" s="33"/>
       <c r="B98" s="33">
         <v>2</v>
@@ -14754,7 +14765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="1" ht="14.4" spans="1:7">
+    <row r="99" customFormat="1" ht="13.5" spans="1:7">
       <c r="A99" s="33"/>
       <c r="B99" s="33">
         <v>2</v>
@@ -14775,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="1" ht="14.4" spans="1:7">
+    <row r="100" customFormat="1" ht="13.5" spans="1:7">
       <c r="A100" s="33"/>
       <c r="B100" s="33">
         <v>2</v>
@@ -14796,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="1" ht="14.4" spans="1:7">
+    <row r="101" customFormat="1" ht="13.5" spans="1:7">
       <c r="A101" s="33"/>
       <c r="B101" s="33">
         <v>2</v>
@@ -14817,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="1" ht="14.4" spans="1:7">
+    <row r="102" customFormat="1" ht="13.5" spans="1:7">
       <c r="A102" s="33"/>
       <c r="B102" s="33">
         <v>2</v>
@@ -14838,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="1" ht="14.4" spans="1:7">
+    <row r="103" customFormat="1" ht="13.5" spans="1:7">
       <c r="A103" s="33"/>
       <c r="B103" s="33">
         <v>2</v>
@@ -14859,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="1" ht="14.4" spans="1:7">
+    <row r="104" customFormat="1" ht="13.5" spans="1:7">
       <c r="A104" s="33">
         <v>200</v>
       </c>
@@ -14882,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="1" ht="14.4" spans="1:7">
+    <row r="105" customFormat="1" ht="13.5" spans="1:7">
       <c r="A105" s="33">
         <v>500</v>
       </c>
@@ -14905,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="1" ht="14.4" spans="1:7">
+    <row r="106" customFormat="1" ht="13.5" spans="1:7">
       <c r="A106" s="33">
         <v>1000</v>
       </c>
@@ -14928,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="1" ht="14.4" spans="1:7">
+    <row r="107" customFormat="1" ht="13.5" spans="1:7">
       <c r="A107" s="33"/>
       <c r="B107" s="33">
         <v>2</v>
@@ -14949,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="1" ht="14.4" spans="1:7">
+    <row r="108" customFormat="1" ht="13.5" spans="1:7">
       <c r="A108" s="33"/>
       <c r="B108" s="33">
         <v>2</v>
@@ -14970,7 +14981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="1" ht="14.4" spans="1:7">
+    <row r="109" customFormat="1" ht="13.5" spans="1:7">
       <c r="A109" s="33"/>
       <c r="B109" s="33">
         <v>2</v>
@@ -14991,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customFormat="1" ht="14.4" spans="1:7">
+    <row r="110" customFormat="1" ht="13.5" spans="1:7">
       <c r="A110" s="33"/>
       <c r="B110" s="33">
         <v>2</v>
@@ -15012,7 +15023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customFormat="1" ht="14.4" spans="1:7">
+    <row r="111" customFormat="1" ht="13.5" spans="1:7">
       <c r="A111" s="33"/>
       <c r="B111" s="33">
         <v>2</v>
@@ -15033,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customFormat="1" ht="14.4" spans="1:7">
+    <row r="112" customFormat="1" ht="13.5" spans="1:7">
       <c r="A112" s="33"/>
       <c r="B112" s="33">
         <v>2</v>
@@ -15054,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="1" ht="14.4" spans="1:7">
+    <row r="113" customFormat="1" ht="13.5" spans="1:7">
       <c r="A113" s="33">
         <v>200</v>
       </c>
@@ -15077,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" customFormat="1" ht="14.4" spans="1:7">
+    <row r="114" customFormat="1" ht="13.5" spans="1:7">
       <c r="A114" s="33">
         <v>500</v>
       </c>
@@ -15100,7 +15111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="1" ht="14.4" spans="1:7">
+    <row r="115" customFormat="1" ht="13.5" spans="1:7">
       <c r="A115" s="33">
         <v>1000</v>
       </c>
@@ -15123,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="1" ht="14.4" spans="1:7">
+    <row r="116" customFormat="1" ht="13.5" spans="1:7">
       <c r="A116" s="33"/>
       <c r="B116" s="33">
         <v>2</v>
@@ -15144,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="1" ht="14.4" spans="1:7">
+    <row r="117" customFormat="1" ht="13.5" spans="1:7">
       <c r="A117" s="33"/>
       <c r="B117" s="33">
         <v>2</v>
@@ -15165,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="1" ht="14.4" spans="1:7">
+    <row r="118" customFormat="1" ht="13.5" spans="1:7">
       <c r="A118" s="33"/>
       <c r="B118" s="33">
         <v>2</v>
@@ -15186,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="1" ht="14.4" spans="1:7">
+    <row r="119" customFormat="1" ht="13.5" spans="1:7">
       <c r="A119" s="33"/>
       <c r="B119" s="33">
         <v>2</v>
@@ -15207,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="1" ht="14.4" spans="1:7">
+    <row r="120" customFormat="1" ht="13.5" spans="1:7">
       <c r="A120" s="33"/>
       <c r="B120" s="33">
         <v>2</v>
@@ -15228,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="1" ht="14.4" spans="1:7">
+    <row r="121" customFormat="1" ht="13.5" spans="1:7">
       <c r="A121" s="33"/>
       <c r="B121" s="33">
         <v>2</v>
@@ -15249,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" customFormat="1" ht="14.4" spans="1:7">
+    <row r="122" customFormat="1" ht="13.5" spans="1:7">
       <c r="A122" s="33">
         <v>200</v>
       </c>
@@ -15272,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="1" ht="14.4" spans="1:7">
+    <row r="123" customFormat="1" ht="13.5" spans="1:7">
       <c r="A123" s="33">
         <v>500</v>
       </c>
@@ -15295,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" customFormat="1" ht="14.4" spans="1:7">
+    <row r="124" customFormat="1" ht="13.5" spans="1:7">
       <c r="A124" s="33">
         <v>1000</v>
       </c>
@@ -15318,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" customFormat="1" ht="14.4" spans="1:7">
+    <row r="125" customFormat="1" ht="13.5" spans="1:7">
       <c r="A125" s="33"/>
       <c r="B125" s="33">
         <v>2</v>
@@ -15339,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" customFormat="1" ht="14.4" spans="1:7">
+    <row r="126" customFormat="1" ht="13.5" spans="1:7">
       <c r="A126" s="33"/>
       <c r="B126" s="33">
         <v>2</v>
@@ -15360,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" customFormat="1" ht="14.4" spans="1:7">
+    <row r="127" customFormat="1" ht="13.5" spans="1:7">
       <c r="A127" s="33"/>
       <c r="B127" s="33">
         <v>2</v>
@@ -15381,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" customFormat="1" ht="14.4" spans="1:7">
+    <row r="128" customFormat="1" ht="13.5" spans="1:7">
       <c r="A128" s="33"/>
       <c r="B128" s="33">
         <v>2</v>
@@ -15402,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" customFormat="1" ht="14.4" spans="1:7">
+    <row r="129" customFormat="1" ht="13.5" spans="1:7">
       <c r="A129" s="33"/>
       <c r="B129" s="33">
         <v>2</v>
@@ -15423,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" customFormat="1" ht="14.4" spans="1:7">
+    <row r="130" customFormat="1" ht="13.5" spans="1:7">
       <c r="A130" s="33"/>
       <c r="B130" s="33">
         <v>2</v>
@@ -15444,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" customFormat="1" ht="14.4" spans="1:7">
+    <row r="131" customFormat="1" ht="13.5" spans="1:7">
       <c r="A131" s="33">
         <v>200</v>
       </c>
@@ -15467,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="1" ht="14.4" spans="1:7">
+    <row r="132" customFormat="1" ht="13.5" spans="1:7">
       <c r="A132" s="33">
         <v>500</v>
       </c>
@@ -15490,7 +15501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" customFormat="1" ht="14.4" spans="1:7">
+    <row r="133" customFormat="1" ht="13.5" spans="1:7">
       <c r="A133" s="33">
         <v>1000</v>
       </c>
@@ -15530,10 +15541,10 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="36.1296296296296" style="31" customWidth="1"/>
+    <col min="1" max="1" width="10.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="36.1333333333333" style="31" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16365,7 +16376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="30" customFormat="1" ht="15.15" spans="1:5">
+    <row r="49" s="30" customFormat="1" ht="14.25" spans="1:5">
       <c r="A49" s="36" t="s">
         <v>231</v>
       </c>
@@ -17116,13 +17127,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="17.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/导表工具/C-充值奖励配置.xlsx
+++ b/导表工具/C-充值奖励配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="801" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="801" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="首充配置" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="571">
   <si>
     <t>导出类型</t>
   </si>
@@ -1032,6 +1032,891 @@
     <t>{{type=0,id=2,count=26000}}</t>
   </si>
   <si>
+    <t>累计充值43天</t>
+  </si>
+  <si>
+    <t>累计充值44天</t>
+  </si>
+  <si>
+    <t>累计充值45天</t>
+  </si>
+  <si>
+    <t>累计充值46天</t>
+  </si>
+  <si>
+    <t>累计充值47天</t>
+  </si>
+  <si>
+    <t>累计充值48天</t>
+  </si>
+  <si>
+    <t>累计充值49天</t>
+  </si>
+  <si>
+    <t>累计充值50天</t>
+  </si>
+  <si>
+    <t>累计充值51天</t>
+  </si>
+  <si>
+    <t>累计充值52天</t>
+  </si>
+  <si>
+    <t>累计充值53天</t>
+  </si>
+  <si>
+    <t>累计充值54天</t>
+  </si>
+  <si>
+    <t>累计充值55天</t>
+  </si>
+  <si>
+    <t>累计充值56天</t>
+  </si>
+  <si>
+    <t>累计充值57天</t>
+  </si>
+  <si>
+    <t>累计充值58天</t>
+  </si>
+  <si>
+    <t>累计充值59天</t>
+  </si>
+  <si>
+    <t>累计充值60天</t>
+  </si>
+  <si>
+    <t>累计充值61天</t>
+  </si>
+  <si>
+    <t>累计充值62天</t>
+  </si>
+  <si>
+    <t>累计充值63天</t>
+  </si>
+  <si>
+    <t>累计充值64天</t>
+  </si>
+  <si>
+    <t>累计充值65天</t>
+  </si>
+  <si>
+    <t>累计充值66天</t>
+  </si>
+  <si>
+    <t>累计充值67天</t>
+  </si>
+  <si>
+    <t>累计充值68天</t>
+  </si>
+  <si>
+    <t>累计充值69天</t>
+  </si>
+  <si>
+    <t>累计充值70天</t>
+  </si>
+  <si>
+    <t>累计充值71天</t>
+  </si>
+  <si>
+    <t>累计充值72天</t>
+  </si>
+  <si>
+    <t>累计充值73天</t>
+  </si>
+  <si>
+    <t>累计充值74天</t>
+  </si>
+  <si>
+    <t>累计充值75天</t>
+  </si>
+  <si>
+    <t>累计充值76天</t>
+  </si>
+  <si>
+    <t>累计充值77天</t>
+  </si>
+  <si>
+    <t>累计充值78天</t>
+  </si>
+  <si>
+    <t>累计充值79天</t>
+  </si>
+  <si>
+    <t>累计充值80天</t>
+  </si>
+  <si>
+    <t>累计充值81天</t>
+  </si>
+  <si>
+    <t>累计充值82天</t>
+  </si>
+  <si>
+    <t>累计充值83天</t>
+  </si>
+  <si>
+    <t>累计充值84天</t>
+  </si>
+  <si>
+    <t>累计充值85天</t>
+  </si>
+  <si>
+    <t>累计充值86天</t>
+  </si>
+  <si>
+    <t>累计充值87天</t>
+  </si>
+  <si>
+    <t>累计充值88天</t>
+  </si>
+  <si>
+    <t>累计充值89天</t>
+  </si>
+  <si>
+    <t>累计充值90天</t>
+  </si>
+  <si>
+    <t>累计充值91天</t>
+  </si>
+  <si>
+    <t>累计充值92天</t>
+  </si>
+  <si>
+    <t>累计充值93天</t>
+  </si>
+  <si>
+    <t>累计充值94天</t>
+  </si>
+  <si>
+    <t>累计充值95天</t>
+  </si>
+  <si>
+    <t>累计充值96天</t>
+  </si>
+  <si>
+    <t>累计充值97天</t>
+  </si>
+  <si>
+    <t>累计充值98天</t>
+  </si>
+  <si>
+    <t>累计充值99天</t>
+  </si>
+  <si>
+    <t>累计充值100天</t>
+  </si>
+  <si>
+    <t>累计充值101天</t>
+  </si>
+  <si>
+    <t>累计充值102天</t>
+  </si>
+  <si>
+    <t>累计充值103天</t>
+  </si>
+  <si>
+    <t>累计充值104天</t>
+  </si>
+  <si>
+    <t>累计充值105天</t>
+  </si>
+  <si>
+    <t>累计充值106天</t>
+  </si>
+  <si>
+    <t>累计充值107天</t>
+  </si>
+  <si>
+    <t>累计充值108天</t>
+  </si>
+  <si>
+    <t>累计充值109天</t>
+  </si>
+  <si>
+    <t>累计充值110天</t>
+  </si>
+  <si>
+    <t>累计充值111天</t>
+  </si>
+  <si>
+    <t>累计充值112天</t>
+  </si>
+  <si>
+    <t>累计充值113天</t>
+  </si>
+  <si>
+    <t>累计充值114天</t>
+  </si>
+  <si>
+    <t>累计充值115天</t>
+  </si>
+  <si>
+    <t>累计充值116天</t>
+  </si>
+  <si>
+    <t>累计充值117天</t>
+  </si>
+  <si>
+    <t>累计充值118天</t>
+  </si>
+  <si>
+    <t>累计充值119天</t>
+  </si>
+  <si>
+    <t>累计充值120天</t>
+  </si>
+  <si>
+    <t>累计充值121天</t>
+  </si>
+  <si>
+    <t>累计充值122天</t>
+  </si>
+  <si>
+    <t>累计充值123天</t>
+  </si>
+  <si>
+    <t>累计充值124天</t>
+  </si>
+  <si>
+    <t>累计充值125天</t>
+  </si>
+  <si>
+    <t>累计充值126天</t>
+  </si>
+  <si>
+    <t>累计充值127天</t>
+  </si>
+  <si>
+    <t>累计充值128天</t>
+  </si>
+  <si>
+    <t>累计充值129天</t>
+  </si>
+  <si>
+    <t>累计充值130天</t>
+  </si>
+  <si>
+    <t>累计充值131天</t>
+  </si>
+  <si>
+    <t>累计充值132天</t>
+  </si>
+  <si>
+    <t>累计充值133天</t>
+  </si>
+  <si>
+    <t>累计充值134天</t>
+  </si>
+  <si>
+    <t>累计充值135天</t>
+  </si>
+  <si>
+    <t>累计充值136天</t>
+  </si>
+  <si>
+    <t>累计充值137天</t>
+  </si>
+  <si>
+    <t>累计充值138天</t>
+  </si>
+  <si>
+    <t>累计充值139天</t>
+  </si>
+  <si>
+    <t>累计充值140天</t>
+  </si>
+  <si>
+    <t>累计充值141天</t>
+  </si>
+  <si>
+    <t>累计充值142天</t>
+  </si>
+  <si>
+    <t>累计充值143天</t>
+  </si>
+  <si>
+    <t>累计充值144天</t>
+  </si>
+  <si>
+    <t>累计充值145天</t>
+  </si>
+  <si>
+    <t>累计充值146天</t>
+  </si>
+  <si>
+    <t>累计充值147天</t>
+  </si>
+  <si>
+    <t>累计充值148天</t>
+  </si>
+  <si>
+    <t>累计充值149天</t>
+  </si>
+  <si>
+    <t>累计充值150天</t>
+  </si>
+  <si>
+    <t>累计充值151天</t>
+  </si>
+  <si>
+    <t>累计充值152天</t>
+  </si>
+  <si>
+    <t>累计充值153天</t>
+  </si>
+  <si>
+    <t>累计充值154天</t>
+  </si>
+  <si>
+    <t>累计充值155天</t>
+  </si>
+  <si>
+    <t>累计充值156天</t>
+  </si>
+  <si>
+    <t>累计充值157天</t>
+  </si>
+  <si>
+    <t>累计充值158天</t>
+  </si>
+  <si>
+    <t>累计充值159天</t>
+  </si>
+  <si>
+    <t>累计充值160天</t>
+  </si>
+  <si>
+    <t>累计充值161天</t>
+  </si>
+  <si>
+    <t>累计充值162天</t>
+  </si>
+  <si>
+    <t>累计充值163天</t>
+  </si>
+  <si>
+    <t>累计充值164天</t>
+  </si>
+  <si>
+    <t>累计充值165天</t>
+  </si>
+  <si>
+    <t>累计充值166天</t>
+  </si>
+  <si>
+    <t>累计充值167天</t>
+  </si>
+  <si>
+    <t>累计充值168天</t>
+  </si>
+  <si>
+    <t>累计充值169天</t>
+  </si>
+  <si>
+    <t>累计充值170天</t>
+  </si>
+  <si>
+    <t>累计充值171天</t>
+  </si>
+  <si>
+    <t>累计充值172天</t>
+  </si>
+  <si>
+    <t>累计充值173天</t>
+  </si>
+  <si>
+    <t>累计充值174天</t>
+  </si>
+  <si>
+    <t>累计充值175天</t>
+  </si>
+  <si>
+    <t>累计充值176天</t>
+  </si>
+  <si>
+    <t>累计充值177天</t>
+  </si>
+  <si>
+    <t>累计充值178天</t>
+  </si>
+  <si>
+    <t>累计充值179天</t>
+  </si>
+  <si>
+    <t>累计充值180天</t>
+  </si>
+  <si>
+    <t>累计充值181天</t>
+  </si>
+  <si>
+    <t>累计充值182天</t>
+  </si>
+  <si>
+    <t>累计充值183天</t>
+  </si>
+  <si>
+    <t>累计充值184天</t>
+  </si>
+  <si>
+    <t>累计充值185天</t>
+  </si>
+  <si>
+    <t>累计充值186天</t>
+  </si>
+  <si>
+    <t>累计充值187天</t>
+  </si>
+  <si>
+    <t>累计充值188天</t>
+  </si>
+  <si>
+    <t>累计充值189天</t>
+  </si>
+  <si>
+    <t>累计充值190天</t>
+  </si>
+  <si>
+    <t>累计充值191天</t>
+  </si>
+  <si>
+    <t>累计充值192天</t>
+  </si>
+  <si>
+    <t>累计充值193天</t>
+  </si>
+  <si>
+    <t>累计充值194天</t>
+  </si>
+  <si>
+    <t>累计充值195天</t>
+  </si>
+  <si>
+    <t>累计充值196天</t>
+  </si>
+  <si>
+    <t>累计充值197天</t>
+  </si>
+  <si>
+    <t>累计充值198天</t>
+  </si>
+  <si>
+    <t>累计充值199天</t>
+  </si>
+  <si>
+    <t>累计充值200天</t>
+  </si>
+  <si>
+    <t>累计充值201天</t>
+  </si>
+  <si>
+    <t>累计充值202天</t>
+  </si>
+  <si>
+    <t>累计充值203天</t>
+  </si>
+  <si>
+    <t>累计充值204天</t>
+  </si>
+  <si>
+    <t>累计充值205天</t>
+  </si>
+  <si>
+    <t>累计充值206天</t>
+  </si>
+  <si>
+    <t>累计充值207天</t>
+  </si>
+  <si>
+    <t>累计充值208天</t>
+  </si>
+  <si>
+    <t>累计充值209天</t>
+  </si>
+  <si>
+    <t>累计充值210天</t>
+  </si>
+  <si>
+    <t>累计充值211天</t>
+  </si>
+  <si>
+    <t>累计充值212天</t>
+  </si>
+  <si>
+    <t>累计充值213天</t>
+  </si>
+  <si>
+    <t>累计充值214天</t>
+  </si>
+  <si>
+    <t>累计充值215天</t>
+  </si>
+  <si>
+    <t>累计充值216天</t>
+  </si>
+  <si>
+    <t>累计充值217天</t>
+  </si>
+  <si>
+    <t>累计充值218天</t>
+  </si>
+  <si>
+    <t>累计充值219天</t>
+  </si>
+  <si>
+    <t>累计充值220天</t>
+  </si>
+  <si>
+    <t>累计充值221天</t>
+  </si>
+  <si>
+    <t>累计充值222天</t>
+  </si>
+  <si>
+    <t>累计充值223天</t>
+  </si>
+  <si>
+    <t>累计充值224天</t>
+  </si>
+  <si>
+    <t>累计充值225天</t>
+  </si>
+  <si>
+    <t>累计充值226天</t>
+  </si>
+  <si>
+    <t>累计充值227天</t>
+  </si>
+  <si>
+    <t>累计充值228天</t>
+  </si>
+  <si>
+    <t>累计充值229天</t>
+  </si>
+  <si>
+    <t>累计充值230天</t>
+  </si>
+  <si>
+    <t>累计充值231天</t>
+  </si>
+  <si>
+    <t>累计充值232天</t>
+  </si>
+  <si>
+    <t>累计充值233天</t>
+  </si>
+  <si>
+    <t>累计充值234天</t>
+  </si>
+  <si>
+    <t>累计充值235天</t>
+  </si>
+  <si>
+    <t>累计充值236天</t>
+  </si>
+  <si>
+    <t>累计充值237天</t>
+  </si>
+  <si>
+    <t>累计充值238天</t>
+  </si>
+  <si>
+    <t>累计充值239天</t>
+  </si>
+  <si>
+    <t>累计充值240天</t>
+  </si>
+  <si>
+    <t>累计充值241天</t>
+  </si>
+  <si>
+    <t>累计充值242天</t>
+  </si>
+  <si>
+    <t>累计充值243天</t>
+  </si>
+  <si>
+    <t>累计充值244天</t>
+  </si>
+  <si>
+    <t>累计充值245天</t>
+  </si>
+  <si>
+    <t>累计充值246天</t>
+  </si>
+  <si>
+    <t>累计充值247天</t>
+  </si>
+  <si>
+    <t>累计充值248天</t>
+  </si>
+  <si>
+    <t>累计充值249天</t>
+  </si>
+  <si>
+    <t>累计充值250天</t>
+  </si>
+  <si>
+    <t>累计充值251天</t>
+  </si>
+  <si>
+    <t>累计充值252天</t>
+  </si>
+  <si>
+    <t>累计充值253天</t>
+  </si>
+  <si>
+    <t>累计充值254天</t>
+  </si>
+  <si>
+    <t>累计充值255天</t>
+  </si>
+  <si>
+    <t>累计充值256天</t>
+  </si>
+  <si>
+    <t>累计充值257天</t>
+  </si>
+  <si>
+    <t>累计充值258天</t>
+  </si>
+  <si>
+    <t>累计充值259天</t>
+  </si>
+  <si>
+    <t>累计充值260天</t>
+  </si>
+  <si>
+    <t>累计充值261天</t>
+  </si>
+  <si>
+    <t>累计充值262天</t>
+  </si>
+  <si>
+    <t>累计充值263天</t>
+  </si>
+  <si>
+    <t>累计充值264天</t>
+  </si>
+  <si>
+    <t>累计充值265天</t>
+  </si>
+  <si>
+    <t>累计充值266天</t>
+  </si>
+  <si>
+    <t>累计充值267天</t>
+  </si>
+  <si>
+    <t>累计充值268天</t>
+  </si>
+  <si>
+    <t>累计充值269天</t>
+  </si>
+  <si>
+    <t>累计充值270天</t>
+  </si>
+  <si>
+    <t>累计充值271天</t>
+  </si>
+  <si>
+    <t>累计充值272天</t>
+  </si>
+  <si>
+    <t>累计充值273天</t>
+  </si>
+  <si>
+    <t>累计充值274天</t>
+  </si>
+  <si>
+    <t>累计充值275天</t>
+  </si>
+  <si>
+    <t>累计充值276天</t>
+  </si>
+  <si>
+    <t>累计充值277天</t>
+  </si>
+  <si>
+    <t>累计充值278天</t>
+  </si>
+  <si>
+    <t>累计充值279天</t>
+  </si>
+  <si>
+    <t>累计充值280天</t>
+  </si>
+  <si>
+    <t>累计充值281天</t>
+  </si>
+  <si>
+    <t>累计充值282天</t>
+  </si>
+  <si>
+    <t>累计充值283天</t>
+  </si>
+  <si>
+    <t>累计充值284天</t>
+  </si>
+  <si>
+    <t>累计充值285天</t>
+  </si>
+  <si>
+    <t>累计充值286天</t>
+  </si>
+  <si>
+    <t>累计充值287天</t>
+  </si>
+  <si>
+    <t>累计充值288天</t>
+  </si>
+  <si>
+    <t>累计充值289天</t>
+  </si>
+  <si>
+    <t>累计充值290天</t>
+  </si>
+  <si>
+    <t>累计充值291天</t>
+  </si>
+  <si>
+    <t>累计充值292天</t>
+  </si>
+  <si>
+    <t>累计充值293天</t>
+  </si>
+  <si>
+    <t>累计充值294天</t>
+  </si>
+  <si>
+    <t>累计充值295天</t>
+  </si>
+  <si>
+    <t>累计充值296天</t>
+  </si>
+  <si>
+    <t>累计充值297天</t>
+  </si>
+  <si>
+    <t>累计充值298天</t>
+  </si>
+  <si>
+    <t>累计充值299天</t>
+  </si>
+  <si>
+    <t>累计充值300天</t>
+  </si>
+  <si>
+    <t>累计充值301天</t>
+  </si>
+  <si>
+    <t>累计充值302天</t>
+  </si>
+  <si>
+    <t>累计充值303天</t>
+  </si>
+  <si>
+    <t>累计充值304天</t>
+  </si>
+  <si>
+    <t>累计充值305天</t>
+  </si>
+  <si>
+    <t>累计充值306天</t>
+  </si>
+  <si>
+    <t>累计充值307天</t>
+  </si>
+  <si>
+    <t>累计充值308天</t>
+  </si>
+  <si>
+    <t>累计充值309天</t>
+  </si>
+  <si>
+    <t>累计充值310天</t>
+  </si>
+  <si>
+    <t>累计充值311天</t>
+  </si>
+  <si>
+    <t>累计充值312天</t>
+  </si>
+  <si>
+    <t>累计充值313天</t>
+  </si>
+  <si>
+    <t>累计充值314天</t>
+  </si>
+  <si>
+    <t>累计充值315天</t>
+  </si>
+  <si>
+    <t>累计充值316天</t>
+  </si>
+  <si>
+    <t>累计充值317天</t>
+  </si>
+  <si>
+    <t>累计充值318天</t>
+  </si>
+  <si>
+    <t>累计充值319天</t>
+  </si>
+  <si>
+    <t>累计充值320天</t>
+  </si>
+  <si>
+    <t>累计充值321天</t>
+  </si>
+  <si>
+    <t>累计充值322天</t>
+  </si>
+  <si>
+    <t>累计充值323天</t>
+  </si>
+  <si>
+    <t>累计充值324天</t>
+  </si>
+  <si>
+    <t>累计充值325天</t>
+  </si>
+  <si>
+    <t>累计充值326天</t>
+  </si>
+  <si>
+    <t>累计充值327天</t>
+  </si>
+  <si>
+    <t>累计充值328天</t>
+  </si>
+  <si>
+    <t>累计充值329天</t>
+  </si>
+  <si>
+    <t>累计充值330天</t>
+  </si>
+  <si>
+    <t>累计充值331天</t>
+  </si>
+  <si>
+    <t>累计充值332天</t>
+  </si>
+  <si>
+    <t>累计充值333天</t>
+  </si>
+  <si>
+    <t>累计充值334天</t>
+  </si>
+  <si>
+    <t>累计充值335天</t>
+  </si>
+  <si>
+    <t>累计充值336天</t>
+  </si>
+  <si>
+    <t>累计充值337天</t>
+  </si>
+  <si>
     <t>tiny</t>
   </si>
   <si>
@@ -1202,8 +2087,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="53">
     <font>
@@ -1323,6 +2208,160 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Jokerman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="新宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Lucida Calligraphy"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="华文新魏"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249946592608417"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="华文仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1338,12 +2377,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1358,43 +2406,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF0070C0"/>
+      <name val="Kristen ITC"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1404,139 +2419,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="华文新魏"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="华文中宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="华文细黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Jokerman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="华文细黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="新宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Lucida Calligraphy"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="新宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="华文中宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="9" tint="-0.249946592608417"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Kristen ITC"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1632,163 +2517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.149876400036622"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,6 +2542,42 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <gradientFill degree="90">
@@ -1820,7 +2597,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,20 +2729,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149876400036622"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1976,65 +2861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2069,7 +2895,68 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2089,16 +2976,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2107,195 +2992,195 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="17" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="16" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="16">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="20" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="15" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="17" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="16" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="16" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="16" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1">
@@ -2399,6 +3284,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2407,15 +3301,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3117,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>272</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3125,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>273</v>
+        <v>568</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
@@ -3189,7 +4074,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>274</v>
+        <v>569</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>56</v>
@@ -3206,7 +4091,7 @@
         <v>500</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>275</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3220,7 +4105,7 @@
         <v>2000</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>275</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3234,7 +4119,7 @@
         <v>3000</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>275</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -15535,10 +16420,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J679"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16329,10 +17214,10 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="I46" s="39" t="s">
+      <c r="I46" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="37">
         <v>200141</v>
       </c>
     </row>
@@ -16352,10 +17237,10 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="I47" s="41" t="s">
+      <c r="I47" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="37">
         <v>200301</v>
       </c>
     </row>
@@ -16376,26 +17261,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="30" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A49" s="36" t="s">
+    <row r="49" customFormat="1" spans="1:5">
+      <c r="A49" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="15">
         <v>42</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D49" s="30">
-        <v>1</v>
-      </c>
-      <c r="E49" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:5">
       <c r="A50" s="14" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B50" s="15">
         <v>43</v>
@@ -16407,12 +17292,12 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:5">
       <c r="A51" s="14" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="B51" s="15">
         <v>44</v>
@@ -16424,12 +17309,12 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:5">
       <c r="A52" s="14" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="B52" s="15">
         <v>45</v>
@@ -16441,12 +17326,12 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:5">
       <c r="A53" s="14" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="B53" s="15">
         <v>46</v>
@@ -16458,12 +17343,12 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:5">
       <c r="A54" s="14" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="B54" s="15">
         <v>47</v>
@@ -16475,12 +17360,12 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:5">
       <c r="A55" s="14" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="B55" s="15">
         <v>48</v>
@@ -16492,12 +17377,12 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:5">
       <c r="A56" s="14" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="B56" s="15">
         <v>49</v>
@@ -16509,12 +17394,12 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:5">
       <c r="A57" s="14" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="B57" s="15">
         <v>50</v>
@@ -16526,12 +17411,12 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:5">
       <c r="A58" s="14" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="B58" s="15">
         <v>51</v>
@@ -16543,12 +17428,12 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:5">
       <c r="A59" s="14" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="B59" s="15">
         <v>52</v>
@@ -16560,12 +17445,12 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:5">
       <c r="A60" s="14" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="B60" s="15">
         <v>53</v>
@@ -16577,12 +17462,12 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:5">
       <c r="A61" s="14" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="B61" s="15">
         <v>54</v>
@@ -16594,12 +17479,12 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:5">
       <c r="A62" s="14" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="B62" s="15">
         <v>55</v>
@@ -16611,12 +17496,12 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:5">
       <c r="A63" s="14" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="B63" s="15">
         <v>56</v>
@@ -16628,12 +17513,12 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:5">
       <c r="A64" s="14" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="B64" s="15">
         <v>57</v>
@@ -16645,12 +17530,12 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:5">
       <c r="A65" s="14" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="B65" s="15">
         <v>58</v>
@@ -16662,12 +17547,12 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:5">
       <c r="A66" s="14" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B66" s="15">
         <v>59</v>
@@ -16679,12 +17564,12 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:5">
       <c r="A67" s="14" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="B67" s="15">
         <v>60</v>
@@ -16696,12 +17581,12 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:5">
       <c r="A68" s="14" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="B68" s="15">
         <v>61</v>
@@ -16713,12 +17598,12 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:5">
       <c r="A69" s="14" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="B69" s="15">
         <v>62</v>
@@ -16730,12 +17615,12 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:5">
       <c r="A70" s="14" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="B70" s="15">
         <v>63</v>
@@ -16747,12 +17632,12 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:5">
       <c r="A71" s="14" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="B71" s="15">
         <v>64</v>
@@ -16764,12 +17649,12 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:5">
       <c r="A72" s="14" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="B72" s="15">
         <v>65</v>
@@ -16781,12 +17666,12 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:5">
       <c r="A73" s="14" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="B73" s="15">
         <v>66</v>
@@ -16798,12 +17683,12 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:5">
       <c r="A74" s="14" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="B74" s="15">
         <v>67</v>
@@ -16815,12 +17700,12 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:5">
       <c r="A75" s="14" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="B75" s="15">
         <v>68</v>
@@ -16832,12 +17717,12 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:5">
       <c r="A76" s="14" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="B76" s="15">
         <v>69</v>
@@ -16849,12 +17734,12 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:5">
       <c r="A77" s="14" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="B77" s="15">
         <v>70</v>
@@ -16866,12 +17751,12 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:5">
       <c r="A78" s="14" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="B78" s="15">
         <v>71</v>
@@ -16883,12 +17768,12 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:5">
       <c r="A79" s="14" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="B79" s="15">
         <v>72</v>
@@ -16900,12 +17785,12 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:5">
       <c r="A80" s="14" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="B80" s="15">
         <v>73</v>
@@ -16917,12 +17802,12 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:5">
       <c r="A81" s="14" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="B81" s="15">
         <v>74</v>
@@ -16934,12 +17819,12 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:5">
       <c r="A82" s="14" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="B82" s="15">
         <v>75</v>
@@ -16951,12 +17836,12 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:5">
       <c r="A83" s="14" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="B83" s="15">
         <v>76</v>
@@ -16968,12 +17853,12 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:5">
       <c r="A84" s="14" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="B84" s="15">
         <v>77</v>
@@ -16985,12 +17870,12 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:5">
       <c r="A85" s="14" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="B85" s="15">
         <v>78</v>
@@ -17002,12 +17887,12 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:5">
       <c r="A86" s="14" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="B86" s="15">
         <v>79</v>
@@ -17019,12 +17904,12 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:5">
       <c r="A87" s="14" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="B87" s="15">
         <v>80</v>
@@ -17036,12 +17921,12 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:5">
       <c r="A88" s="14" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B88" s="15">
         <v>81</v>
@@ -17053,12 +17938,12 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:5">
       <c r="A89" s="14" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="B89" s="15">
         <v>82</v>
@@ -17070,12 +17955,12 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:5">
       <c r="A90" s="14" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="B90" s="15">
         <v>83</v>
@@ -17087,12 +17972,12 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:5">
       <c r="A91" s="14" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="B91" s="15">
         <v>84</v>
@@ -17104,8 +17989,5992 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:5">
+      <c r="A92" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="15">
+        <v>85</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:5">
+      <c r="A93" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="15">
+        <v>86</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:5">
+      <c r="A94" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" s="15">
+        <v>87</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:5">
+      <c r="A95" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B95" s="15">
+        <v>88</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:5">
+      <c r="A96" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B96" s="15">
+        <v>89</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:5">
+      <c r="A97" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" s="15">
+        <v>90</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:5">
+      <c r="A98" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B98" s="15">
+        <v>91</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:5">
+      <c r="A99" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B99" s="15">
+        <v>92</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:5">
+      <c r="A100" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" s="15">
+        <v>93</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:5">
+      <c r="A101" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B101" s="15">
+        <v>94</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:5">
+      <c r="A102" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B102" s="15">
+        <v>95</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" spans="1:5">
+      <c r="A103" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B103" s="15">
+        <v>96</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:5">
+      <c r="A104" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="15">
+        <v>97</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="1:5">
+      <c r="A105" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B105" s="15">
+        <v>98</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="1:5">
+      <c r="A106" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B106" s="15">
+        <v>99</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:5">
+      <c r="A107" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B107" s="15">
+        <v>100</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="1:5">
+      <c r="A108" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B108" s="15">
+        <v>101</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" spans="1:5">
+      <c r="A109" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B109" s="15">
+        <v>102</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="1:5">
+      <c r="A110" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B110" s="15">
+        <v>103</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="1:5">
+      <c r="A111" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" s="15">
+        <v>104</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="1:5">
+      <c r="A112" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B112" s="15">
+        <v>105</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" spans="1:5">
+      <c r="A113" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" s="15">
+        <v>106</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" spans="1:5">
+      <c r="A114" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B114" s="15">
+        <v>107</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:5">
+      <c r="A115" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="15">
+        <v>108</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="1:5">
+      <c r="A116" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B116" s="15">
+        <v>109</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" spans="1:5">
+      <c r="A117" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B117" s="15">
+        <v>110</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:5">
+      <c r="A118" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" s="15">
+        <v>111</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:5">
+      <c r="A119" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" s="15">
+        <v>112</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:5">
+      <c r="A120" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B120" s="15">
+        <v>113</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" spans="1:5">
+      <c r="A121" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" s="15">
+        <v>114</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="1:5">
+      <c r="A122" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B122" s="15">
+        <v>115</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:5">
+      <c r="A123" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B123" s="15">
+        <v>116</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" spans="1:5">
+      <c r="A124" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B124" s="15">
+        <v>117</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" spans="1:5">
+      <c r="A125" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B125" s="15">
+        <v>118</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="1" spans="1:5">
+      <c r="A126" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B126" s="15">
+        <v>119</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="1" spans="1:5">
+      <c r="A127" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B127" s="15">
+        <v>120</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="1" spans="1:5">
+      <c r="A128" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B128" s="15">
+        <v>121</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="1" spans="1:5">
+      <c r="A129" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B129" s="15">
+        <v>122</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" spans="1:5">
+      <c r="A130" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B130" s="15">
+        <v>123</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:5">
+      <c r="A131" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B131" s="15">
+        <v>124</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="1" spans="1:5">
+      <c r="A132" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B132" s="15">
+        <v>125</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="1" spans="1:5">
+      <c r="A133" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" s="15">
+        <v>126</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="1:5">
+      <c r="A134" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B134" s="15">
+        <v>127</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="1" spans="1:5">
+      <c r="A135" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" s="15">
+        <v>128</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="1" spans="1:5">
+      <c r="A136" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B136" s="15">
+        <v>129</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="1" spans="1:5">
+      <c r="A137" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B137" s="15">
+        <v>130</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" spans="1:5">
+      <c r="A138" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B138" s="15">
+        <v>131</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="1" spans="1:5">
+      <c r="A139" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B139" s="15">
+        <v>132</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="1" spans="1:5">
+      <c r="A140" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B140" s="15">
+        <v>133</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="1" spans="1:5">
+      <c r="A141" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B141" s="15">
+        <v>134</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="1" spans="1:5">
+      <c r="A142" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B142" s="15">
+        <v>135</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="1" spans="1:5">
+      <c r="A143" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B143" s="15">
+        <v>136</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="1" spans="1:5">
+      <c r="A144" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B144" s="15">
+        <v>137</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" spans="1:5">
+      <c r="A145" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B145" s="15">
+        <v>138</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="1:5">
+      <c r="A146" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B146" s="15">
+        <v>139</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1" spans="1:5">
+      <c r="A147" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B147" s="15">
+        <v>140</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" spans="1:5">
+      <c r="A148" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B148" s="15">
+        <v>141</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="1" spans="1:5">
+      <c r="A149" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B149" s="15">
+        <v>142</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="1" spans="1:5">
+      <c r="A150" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B150" s="15">
+        <v>143</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="1" spans="1:5">
+      <c r="A151" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B151" s="15">
+        <v>144</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="1" spans="1:5">
+      <c r="A152" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B152" s="15">
+        <v>145</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="1" spans="1:5">
+      <c r="A153" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B153" s="15">
+        <v>146</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="1" spans="1:5">
+      <c r="A154" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B154" s="15">
+        <v>147</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="1" spans="1:5">
+      <c r="A155" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B155" s="15">
+        <v>148</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="1" spans="1:5">
+      <c r="A156" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="15">
+        <v>149</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="1" spans="1:5">
+      <c r="A157" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B157" s="15">
+        <v>150</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="1" spans="1:5">
+      <c r="A158" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B158" s="15">
+        <v>151</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="1" spans="1:5">
+      <c r="A159" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B159" s="15">
+        <v>152</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="1" spans="1:5">
+      <c r="A160" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B160" s="15">
+        <v>153</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="1" spans="1:5">
+      <c r="A161" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B161" s="15">
+        <v>154</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="1" spans="1:5">
+      <c r="A162" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B162" s="15">
+        <v>155</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="1" spans="1:5">
+      <c r="A163" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B163" s="15">
+        <v>156</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="1" spans="1:5">
+      <c r="A164" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B164" s="15">
+        <v>157</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="1" spans="1:5">
+      <c r="A165" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B165" s="15">
+        <v>158</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="1" spans="1:5">
+      <c r="A166" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B166" s="15">
+        <v>159</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="1" spans="1:5">
+      <c r="A167" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B167" s="15">
+        <v>160</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" customFormat="1" spans="1:5">
+      <c r="A168" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B168" s="15">
+        <v>161</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="1" spans="1:5">
+      <c r="A169" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B169" s="15">
+        <v>162</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" customFormat="1" spans="1:5">
+      <c r="A170" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B170" s="15">
+        <v>163</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" customFormat="1" spans="1:5">
+      <c r="A171" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B171" s="15">
+        <v>164</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" customFormat="1" spans="1:5">
+      <c r="A172" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B172" s="15">
+        <v>165</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" customFormat="1" spans="1:5">
+      <c r="A173" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B173" s="15">
+        <v>166</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" customFormat="1" spans="1:5">
+      <c r="A174" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B174" s="15">
+        <v>167</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" customFormat="1" spans="1:5">
+      <c r="A175" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" s="15">
+        <v>168</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" customFormat="1" spans="1:5">
+      <c r="A176" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B176" s="15">
+        <v>169</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" customFormat="1" spans="1:5">
+      <c r="A177" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" s="15">
+        <v>170</v>
+      </c>
+      <c r="C177" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" customFormat="1" spans="1:5">
+      <c r="A178" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B178" s="15">
+        <v>171</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" customFormat="1" spans="1:5">
+      <c r="A179" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" s="15">
+        <v>172</v>
+      </c>
+      <c r="C179" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" customFormat="1" spans="1:5">
+      <c r="A180" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B180" s="15">
+        <v>173</v>
+      </c>
+      <c r="C180" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" customFormat="1" spans="1:5">
+      <c r="A181" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B181" s="15">
+        <v>174</v>
+      </c>
+      <c r="C181" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="1" spans="1:5">
+      <c r="A182" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" s="15">
+        <v>175</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" customFormat="1" spans="1:5">
+      <c r="A183" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183" s="15">
+        <v>176</v>
+      </c>
+      <c r="C183" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="1" spans="1:5">
+      <c r="A184" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="15">
+        <v>177</v>
+      </c>
+      <c r="C184" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="1" spans="1:5">
+      <c r="A185" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="15">
+        <v>178</v>
+      </c>
+      <c r="C185" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" customFormat="1" spans="1:5">
+      <c r="A186" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" s="15">
+        <v>179</v>
+      </c>
+      <c r="C186" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="1" spans="1:5">
+      <c r="A187" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" s="15">
+        <v>180</v>
+      </c>
+      <c r="C187" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="1" spans="1:5">
+      <c r="A188" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" s="15">
+        <v>181</v>
+      </c>
+      <c r="C188" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" customFormat="1" spans="1:5">
+      <c r="A189" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" s="15">
+        <v>182</v>
+      </c>
+      <c r="C189" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="1" spans="1:5">
+      <c r="A190" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B190" s="15">
+        <v>183</v>
+      </c>
+      <c r="C190" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" customFormat="1" spans="1:5">
+      <c r="A191" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B191" s="15">
+        <v>184</v>
+      </c>
+      <c r="C191" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="1" spans="1:5">
+      <c r="A192" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B192" s="15">
+        <v>185</v>
+      </c>
+      <c r="C192" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" customFormat="1" spans="1:5">
+      <c r="A193" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B193" s="15">
+        <v>186</v>
+      </c>
+      <c r="C193" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" customFormat="1" spans="1:5">
+      <c r="A194" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" s="15">
+        <v>187</v>
+      </c>
+      <c r="C194" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="1" spans="1:5">
+      <c r="A195" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B195" s="15">
+        <v>188</v>
+      </c>
+      <c r="C195" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="1" spans="1:5">
+      <c r="A196" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B196" s="15">
+        <v>189</v>
+      </c>
+      <c r="C196" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="1" spans="1:5">
+      <c r="A197" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B197" s="15">
+        <v>190</v>
+      </c>
+      <c r="C197" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="1" spans="1:5">
+      <c r="A198" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B198" s="15">
+        <v>191</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" customFormat="1" spans="1:5">
+      <c r="A199" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B199" s="15">
+        <v>192</v>
+      </c>
+      <c r="C199" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="1" spans="1:5">
+      <c r="A200" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B200" s="15">
+        <v>193</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" customFormat="1" spans="1:5">
+      <c r="A201" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B201" s="15">
+        <v>194</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" customFormat="1" spans="1:5">
+      <c r="A202" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B202" s="15">
+        <v>195</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" customFormat="1" spans="1:5">
+      <c r="A203" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B203" s="15">
+        <v>196</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="1" spans="1:5">
+      <c r="A204" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B204" s="15">
+        <v>197</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" customFormat="1" spans="1:5">
+      <c r="A205" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B205" s="15">
+        <v>198</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="1" spans="1:5">
+      <c r="A206" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B206" s="15">
+        <v>199</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="1" spans="1:5">
+      <c r="A207" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B207" s="15">
+        <v>200</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" customFormat="1" spans="1:5">
+      <c r="A208" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B208" s="15">
+        <v>201</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="1" spans="1:5">
+      <c r="A209" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B209" s="15">
+        <v>202</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" customFormat="1" spans="1:5">
+      <c r="A210" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B210" s="15">
+        <v>203</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="1" spans="1:5">
+      <c r="A211" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B211" s="15">
+        <v>204</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" customFormat="1" spans="1:5">
+      <c r="A212" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B212" s="15">
+        <v>205</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" customFormat="1" spans="1:5">
+      <c r="A213" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B213" s="15">
+        <v>206</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="1" spans="1:5">
+      <c r="A214" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B214" s="15">
+        <v>207</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="1" spans="1:5">
+      <c r="A215" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B215" s="15">
+        <v>208</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" customFormat="1" spans="1:5">
+      <c r="A216" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B216" s="15">
+        <v>209</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" customFormat="1" spans="1:5">
+      <c r="A217" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B217" s="15">
+        <v>210</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" customFormat="1" spans="1:5">
+      <c r="A218" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B218" s="15">
+        <v>211</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" customFormat="1" spans="1:5">
+      <c r="A219" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B219" s="15">
+        <v>212</v>
+      </c>
+      <c r="C219" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="1" spans="1:5">
+      <c r="A220" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B220" s="15">
+        <v>213</v>
+      </c>
+      <c r="C220" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" customFormat="1" spans="1:5">
+      <c r="A221" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B221" s="15">
+        <v>214</v>
+      </c>
+      <c r="C221" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" customFormat="1" spans="1:5">
+      <c r="A222" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B222" s="15">
+        <v>215</v>
+      </c>
+      <c r="C222" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="1" spans="1:5">
+      <c r="A223" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B223" s="15">
+        <v>216</v>
+      </c>
+      <c r="C223" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="1" spans="1:5">
+      <c r="A224" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B224" s="15">
+        <v>217</v>
+      </c>
+      <c r="C224" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="1" spans="1:5">
+      <c r="A225" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B225" s="15">
+        <v>218</v>
+      </c>
+      <c r="C225" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="1" spans="1:5">
+      <c r="A226" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B226" s="15">
+        <v>219</v>
+      </c>
+      <c r="C226" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="1" spans="1:5">
+      <c r="A227" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B227" s="15">
+        <v>220</v>
+      </c>
+      <c r="C227" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="1" spans="1:5">
+      <c r="A228" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B228" s="15">
+        <v>221</v>
+      </c>
+      <c r="C228" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" customFormat="1" spans="1:5">
+      <c r="A229" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B229" s="15">
+        <v>222</v>
+      </c>
+      <c r="C229" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="1" spans="1:5">
+      <c r="A230" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B230" s="15">
+        <v>223</v>
+      </c>
+      <c r="C230" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="1" spans="1:5">
+      <c r="A231" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B231" s="15">
+        <v>224</v>
+      </c>
+      <c r="C231" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="1" spans="1:5">
+      <c r="A232" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B232" s="15">
+        <v>225</v>
+      </c>
+      <c r="C232" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="1" spans="1:5">
+      <c r="A233" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B233" s="15">
+        <v>226</v>
+      </c>
+      <c r="C233" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" customFormat="1" spans="1:5">
+      <c r="A234" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B234" s="15">
+        <v>227</v>
+      </c>
+      <c r="C234" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="1" spans="1:5">
+      <c r="A235" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B235" s="15">
+        <v>228</v>
+      </c>
+      <c r="C235" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" customFormat="1" spans="1:5">
+      <c r="A236" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B236" s="15">
+        <v>229</v>
+      </c>
+      <c r="C236" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" customFormat="1" spans="1:5">
+      <c r="A237" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B237" s="15">
+        <v>230</v>
+      </c>
+      <c r="C237" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="1" spans="1:5">
+      <c r="A238" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B238" s="15">
+        <v>231</v>
+      </c>
+      <c r="C238" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" customFormat="1" spans="1:5">
+      <c r="A239" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B239" s="15">
+        <v>232</v>
+      </c>
+      <c r="C239" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="1" spans="1:5">
+      <c r="A240" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B240" s="15">
+        <v>233</v>
+      </c>
+      <c r="C240" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" customFormat="1" spans="1:5">
+      <c r="A241" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B241" s="15">
+        <v>234</v>
+      </c>
+      <c r="C241" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" customFormat="1" spans="1:5">
+      <c r="A242" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B242" s="15">
+        <v>235</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" customFormat="1" spans="1:5">
+      <c r="A243" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B243" s="15">
+        <v>236</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" customFormat="1" spans="1:5">
+      <c r="A244" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B244" s="15">
+        <v>237</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" customFormat="1" spans="1:5">
+      <c r="A245" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B245" s="15">
+        <v>238</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" customFormat="1" spans="1:5">
+      <c r="A246" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B246" s="15">
+        <v>239</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" customFormat="1" spans="1:5">
+      <c r="A247" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B247" s="15">
+        <v>240</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" customFormat="1" spans="1:5">
+      <c r="A248" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B248" s="15">
+        <v>241</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" customFormat="1" spans="1:5">
+      <c r="A249" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B249" s="15">
+        <v>242</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" customFormat="1" spans="1:5">
+      <c r="A250" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B250" s="15">
+        <v>243</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" customFormat="1" spans="1:5">
+      <c r="A251" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B251" s="15">
+        <v>244</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" customFormat="1" spans="1:5">
+      <c r="A252" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B252" s="15">
+        <v>245</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" customFormat="1" spans="1:5">
+      <c r="A253" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B253" s="15">
+        <v>246</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" customFormat="1" spans="1:5">
+      <c r="A254" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B254" s="15">
+        <v>247</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" customFormat="1" spans="1:5">
+      <c r="A255" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B255" s="15">
+        <v>248</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" customFormat="1" spans="1:5">
+      <c r="A256" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B256" s="15">
+        <v>249</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" customFormat="1" spans="1:5">
+      <c r="A257" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B257" s="15">
+        <v>250</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" customFormat="1" spans="1:5">
+      <c r="A258" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B258" s="15">
+        <v>251</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" customFormat="1" spans="1:5">
+      <c r="A259" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B259" s="15">
+        <v>252</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" customFormat="1" spans="1:5">
+      <c r="A260" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B260" s="15">
+        <v>253</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customFormat="1" spans="1:5">
+      <c r="A261" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B261" s="15">
+        <v>254</v>
+      </c>
+      <c r="C261" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" customFormat="1" spans="1:5">
+      <c r="A262" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B262" s="15">
+        <v>255</v>
+      </c>
+      <c r="C262" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" customFormat="1" spans="1:5">
+      <c r="A263" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B263" s="15">
+        <v>256</v>
+      </c>
+      <c r="C263" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" customFormat="1" spans="1:5">
+      <c r="A264" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B264" s="15">
+        <v>257</v>
+      </c>
+      <c r="C264" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" customFormat="1" spans="1:5">
+      <c r="A265" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B265" s="15">
+        <v>258</v>
+      </c>
+      <c r="C265" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" customFormat="1" spans="1:5">
+      <c r="A266" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B266" s="15">
+        <v>259</v>
+      </c>
+      <c r="C266" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" customFormat="1" spans="1:5">
+      <c r="A267" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B267" s="15">
+        <v>260</v>
+      </c>
+      <c r="C267" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" customFormat="1" spans="1:5">
+      <c r="A268" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B268" s="15">
+        <v>261</v>
+      </c>
+      <c r="C268" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" customFormat="1" spans="1:5">
+      <c r="A269" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B269" s="15">
+        <v>262</v>
+      </c>
+      <c r="C269" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" customFormat="1" spans="1:5">
+      <c r="A270" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B270" s="15">
+        <v>263</v>
+      </c>
+      <c r="C270" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" customFormat="1" spans="1:5">
+      <c r="A271" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B271" s="15">
+        <v>264</v>
+      </c>
+      <c r="C271" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" customFormat="1" spans="1:5">
+      <c r="A272" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B272" s="15">
+        <v>265</v>
+      </c>
+      <c r="C272" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customFormat="1" spans="1:5">
+      <c r="A273" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B273" s="15">
+        <v>266</v>
+      </c>
+      <c r="C273" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" customFormat="1" spans="1:5">
+      <c r="A274" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B274" s="15">
+        <v>267</v>
+      </c>
+      <c r="C274" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" customFormat="1" spans="1:5">
+      <c r="A275" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B275" s="15">
+        <v>268</v>
+      </c>
+      <c r="C275" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" customFormat="1" spans="1:5">
+      <c r="A276" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B276" s="15">
+        <v>269</v>
+      </c>
+      <c r="C276" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" customFormat="1" spans="1:5">
+      <c r="A277" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B277" s="15">
+        <v>270</v>
+      </c>
+      <c r="C277" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" customFormat="1" spans="1:5">
+      <c r="A278" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B278" s="15">
+        <v>271</v>
+      </c>
+      <c r="C278" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" customFormat="1" spans="1:5">
+      <c r="A279" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B279" s="15">
+        <v>272</v>
+      </c>
+      <c r="C279" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" customFormat="1" spans="1:5">
+      <c r="A280" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B280" s="15">
+        <v>273</v>
+      </c>
+      <c r="C280" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" customFormat="1" spans="1:5">
+      <c r="A281" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B281" s="15">
+        <v>274</v>
+      </c>
+      <c r="C281" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" customFormat="1" spans="1:5">
+      <c r="A282" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B282" s="15">
+        <v>275</v>
+      </c>
+      <c r="C282" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" customFormat="1" spans="1:5">
+      <c r="A283" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B283" s="15">
+        <v>276</v>
+      </c>
+      <c r="C283" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" customFormat="1" spans="1:5">
+      <c r="A284" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B284" s="15">
+        <v>277</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" customFormat="1" spans="1:5">
+      <c r="A285" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B285" s="15">
+        <v>278</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" customFormat="1" spans="1:5">
+      <c r="A286" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B286" s="15">
+        <v>279</v>
+      </c>
+      <c r="C286" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" customFormat="1" spans="1:5">
+      <c r="A287" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B287" s="15">
+        <v>280</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" customFormat="1" spans="1:5">
+      <c r="A288" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B288" s="15">
+        <v>281</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" customFormat="1" spans="1:5">
+      <c r="A289" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B289" s="15">
+        <v>282</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" customFormat="1" spans="1:5">
+      <c r="A290" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B290" s="15">
+        <v>283</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" customFormat="1" spans="1:5">
+      <c r="A291" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B291" s="15">
+        <v>284</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" customFormat="1" spans="1:5">
+      <c r="A292" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B292" s="15">
+        <v>285</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" customFormat="1" spans="1:5">
+      <c r="A293" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B293" s="15">
+        <v>286</v>
+      </c>
+      <c r="C293" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" customFormat="1" spans="1:5">
+      <c r="A294" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B294" s="15">
+        <v>287</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" customFormat="1" spans="1:5">
+      <c r="A295" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B295" s="15">
+        <v>288</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" customFormat="1" spans="1:5">
+      <c r="A296" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B296" s="15">
+        <v>289</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" customFormat="1" spans="1:5">
+      <c r="A297" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B297" s="15">
+        <v>290</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" customFormat="1" spans="1:5">
+      <c r="A298" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B298" s="15">
+        <v>291</v>
+      </c>
+      <c r="C298" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" customFormat="1" spans="1:5">
+      <c r="A299" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B299" s="15">
+        <v>292</v>
+      </c>
+      <c r="C299" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" customFormat="1" spans="1:5">
+      <c r="A300" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B300" s="15">
+        <v>293</v>
+      </c>
+      <c r="C300" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" customFormat="1" spans="1:5">
+      <c r="A301" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B301" s="15">
+        <v>294</v>
+      </c>
+      <c r="C301" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" customFormat="1" spans="1:5">
+      <c r="A302" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B302" s="15">
+        <v>295</v>
+      </c>
+      <c r="C302" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" customFormat="1" spans="1:5">
+      <c r="A303" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B303" s="15">
+        <v>296</v>
+      </c>
+      <c r="C303" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" customFormat="1" spans="1:5">
+      <c r="A304" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B304" s="15">
+        <v>297</v>
+      </c>
+      <c r="C304" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" customFormat="1" spans="1:5">
+      <c r="A305" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B305" s="15">
+        <v>298</v>
+      </c>
+      <c r="C305" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" customFormat="1" spans="1:5">
+      <c r="A306" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B306" s="15">
+        <v>299</v>
+      </c>
+      <c r="C306" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" customFormat="1" spans="1:5">
+      <c r="A307" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B307" s="15">
+        <v>300</v>
+      </c>
+      <c r="C307" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" customFormat="1" spans="1:5">
+      <c r="A308" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="B308" s="15">
+        <v>301</v>
+      </c>
+      <c r="C308" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" customFormat="1" spans="1:5">
+      <c r="A309" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B309" s="15">
+        <v>302</v>
+      </c>
+      <c r="C309" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" customFormat="1" spans="1:5">
+      <c r="A310" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B310" s="15">
+        <v>303</v>
+      </c>
+      <c r="C310" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" customFormat="1" spans="1:5">
+      <c r="A311" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B311" s="15">
+        <v>304</v>
+      </c>
+      <c r="C311" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" customFormat="1" spans="1:5">
+      <c r="A312" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="B312" s="15">
+        <v>305</v>
+      </c>
+      <c r="C312" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="1" spans="1:5">
+      <c r="A313" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B313" s="15">
+        <v>306</v>
+      </c>
+      <c r="C313" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" customFormat="1" spans="1:5">
+      <c r="A314" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B314" s="15">
+        <v>307</v>
+      </c>
+      <c r="C314" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" customFormat="1" spans="1:5">
+      <c r="A315" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B315" s="15">
+        <v>308</v>
+      </c>
+      <c r="C315" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" customFormat="1" spans="1:5">
+      <c r="A316" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B316" s="15">
+        <v>309</v>
+      </c>
+      <c r="C316" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" customFormat="1" spans="1:5">
+      <c r="A317" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B317" s="15">
+        <v>310</v>
+      </c>
+      <c r="C317" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" customFormat="1" spans="1:5">
+      <c r="A318" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B318" s="15">
+        <v>311</v>
+      </c>
+      <c r="C318" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" customFormat="1" spans="1:5">
+      <c r="A319" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B319" s="15">
+        <v>312</v>
+      </c>
+      <c r="C319" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" customFormat="1" spans="1:5">
+      <c r="A320" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="B320" s="15">
+        <v>313</v>
+      </c>
+      <c r="C320" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" customFormat="1" spans="1:5">
+      <c r="A321" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B321" s="15">
+        <v>314</v>
+      </c>
+      <c r="C321" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" customFormat="1" spans="1:5">
+      <c r="A322" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B322" s="15">
+        <v>315</v>
+      </c>
+      <c r="C322" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" customFormat="1" spans="1:5">
+      <c r="A323" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B323" s="15">
+        <v>316</v>
+      </c>
+      <c r="C323" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" customFormat="1" spans="1:5">
+      <c r="A324" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B324" s="15">
+        <v>317</v>
+      </c>
+      <c r="C324" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" customFormat="1" spans="1:5">
+      <c r="A325" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B325" s="15">
+        <v>318</v>
+      </c>
+      <c r="C325" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" customFormat="1" spans="1:5">
+      <c r="A326" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B326" s="15">
+        <v>319</v>
+      </c>
+      <c r="C326" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" customFormat="1" spans="1:5">
+      <c r="A327" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B327" s="15">
+        <v>320</v>
+      </c>
+      <c r="C327" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" customFormat="1" spans="1:5">
+      <c r="A328" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B328" s="15">
+        <v>321</v>
+      </c>
+      <c r="C328" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" customFormat="1" spans="1:5">
+      <c r="A329" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B329" s="15">
+        <v>322</v>
+      </c>
+      <c r="C329" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" customFormat="1" spans="1:5">
+      <c r="A330" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B330" s="15">
+        <v>323</v>
+      </c>
+      <c r="C330" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" customFormat="1" spans="1:5">
+      <c r="A331" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="B331" s="15">
+        <v>324</v>
+      </c>
+      <c r="C331" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" customFormat="1" spans="1:5">
+      <c r="A332" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B332" s="15">
+        <v>325</v>
+      </c>
+      <c r="C332" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" customFormat="1" spans="1:5">
+      <c r="A333" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="B333" s="15">
+        <v>326</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" customFormat="1" spans="1:5">
+      <c r="A334" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B334" s="15">
+        <v>327</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" customFormat="1" spans="1:5">
+      <c r="A335" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B335" s="15">
+        <v>328</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" customFormat="1" spans="1:5">
+      <c r="A336" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B336" s="15">
+        <v>329</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" customFormat="1" spans="1:5">
+      <c r="A337" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="B337" s="15">
+        <v>330</v>
+      </c>
+      <c r="C337" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" customFormat="1" spans="1:5">
+      <c r="A338" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="B338" s="15">
+        <v>331</v>
+      </c>
+      <c r="C338" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="1" spans="1:5">
+      <c r="A339" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B339" s="15">
+        <v>332</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" customFormat="1" spans="1:5">
+      <c r="A340" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B340" s="15">
+        <v>333</v>
+      </c>
+      <c r="C340" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="1" spans="1:5">
+      <c r="A341" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B341" s="15">
+        <v>334</v>
+      </c>
+      <c r="C341" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" customFormat="1" spans="1:5">
+      <c r="A342" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="B342" s="15">
+        <v>335</v>
+      </c>
+      <c r="C342" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" customFormat="1" spans="1:5">
+      <c r="A343" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B343" s="15">
+        <v>336</v>
+      </c>
+      <c r="C343" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" s="30" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A344" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="B344" s="40">
+        <v>337</v>
+      </c>
+      <c r="C344" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D344" s="30">
+        <v>1</v>
+      </c>
+      <c r="E344" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="14"/>
+      <c r="B345" s="15"/>
+      <c r="C345" s="35"/>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="14"/>
+      <c r="B346" s="15"/>
+      <c r="C346" s="35"/>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="14"/>
+      <c r="B347" s="15"/>
+      <c r="C347" s="35"/>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="14"/>
+      <c r="B348" s="15"/>
+      <c r="C348" s="35"/>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="14"/>
+      <c r="B349" s="15"/>
+      <c r="C349" s="35"/>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="14"/>
+      <c r="B350" s="15"/>
+      <c r="C350" s="35"/>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="14"/>
+      <c r="B351" s="15"/>
+      <c r="C351" s="35"/>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="14"/>
+      <c r="B352" s="15"/>
+      <c r="C352" s="35"/>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="14"/>
+      <c r="B353" s="15"/>
+      <c r="C353" s="35"/>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="14"/>
+      <c r="B354" s="15"/>
+      <c r="C354" s="35"/>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="14"/>
+      <c r="B355" s="15"/>
+      <c r="C355" s="35"/>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="14"/>
+      <c r="B356" s="15"/>
+      <c r="C356" s="35"/>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="14"/>
+      <c r="B357" s="15"/>
+      <c r="C357" s="35"/>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="14"/>
+      <c r="B358" s="15"/>
+      <c r="C358" s="35"/>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="14"/>
+      <c r="B359" s="15"/>
+      <c r="C359" s="35"/>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="14"/>
+      <c r="B360" s="15"/>
+      <c r="C360" s="35"/>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="14"/>
+      <c r="B361" s="15"/>
+      <c r="C361" s="35"/>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="14"/>
+      <c r="B362" s="15"/>
+      <c r="C362" s="35"/>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="14"/>
+      <c r="B363" s="15"/>
+      <c r="C363" s="35"/>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="14"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="35"/>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="14"/>
+      <c r="B365" s="15"/>
+      <c r="C365" s="35"/>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="14"/>
+      <c r="B366" s="15"/>
+      <c r="C366" s="35"/>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="14"/>
+      <c r="B367" s="15"/>
+      <c r="C367" s="35"/>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="14"/>
+      <c r="B368" s="15"/>
+      <c r="C368" s="16"/>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="14"/>
+      <c r="B369" s="15"/>
+      <c r="C369" s="16"/>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="14"/>
+      <c r="B370" s="15"/>
+      <c r="C370" s="16"/>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="14"/>
+      <c r="B371" s="15"/>
+      <c r="C371" s="16"/>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="14"/>
+      <c r="B372" s="15"/>
+      <c r="C372" s="16"/>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="14"/>
+      <c r="B373" s="15"/>
+      <c r="C373" s="16"/>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="14"/>
+      <c r="B374" s="15"/>
+      <c r="C374" s="16"/>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="14"/>
+      <c r="B375" s="15"/>
+      <c r="C375" s="16"/>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="14"/>
+      <c r="B376" s="15"/>
+      <c r="C376" s="16"/>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="14"/>
+      <c r="B377" s="15"/>
+      <c r="C377" s="16"/>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="14"/>
+      <c r="B378" s="15"/>
+      <c r="C378" s="16"/>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="14"/>
+      <c r="B379" s="15"/>
+      <c r="C379" s="16"/>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="14"/>
+      <c r="B380" s="15"/>
+      <c r="C380" s="16"/>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="14"/>
+      <c r="B381" s="15"/>
+      <c r="C381" s="16"/>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="14"/>
+      <c r="B382" s="15"/>
+      <c r="C382" s="16"/>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="14"/>
+      <c r="B383" s="15"/>
+      <c r="C383" s="16"/>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="14"/>
+      <c r="B384" s="15"/>
+      <c r="C384" s="16"/>
+    </row>
+    <row r="385" ht="14.25" spans="1:5">
+      <c r="A385" s="14"/>
+      <c r="B385" s="15"/>
+      <c r="C385" s="41"/>
+      <c r="D385" s="30"/>
+      <c r="E385" s="30"/>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="14"/>
+      <c r="B386" s="15"/>
+      <c r="C386" s="16"/>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="14"/>
+      <c r="B387" s="15"/>
+      <c r="C387" s="35"/>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="14"/>
+      <c r="B388" s="15"/>
+      <c r="C388" s="35"/>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="14"/>
+      <c r="B389" s="15"/>
+      <c r="C389" s="35"/>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="14"/>
+      <c r="B390" s="15"/>
+      <c r="C390" s="35"/>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="14"/>
+      <c r="B391" s="15"/>
+      <c r="C391" s="35"/>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="14"/>
+      <c r="B392" s="15"/>
+      <c r="C392" s="35"/>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="14"/>
+      <c r="B393" s="15"/>
+      <c r="C393" s="35"/>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="14"/>
+      <c r="B394" s="15"/>
+      <c r="C394" s="35"/>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="14"/>
+      <c r="B395" s="15"/>
+      <c r="C395" s="35"/>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="14"/>
+      <c r="B396" s="15"/>
+      <c r="C396" s="35"/>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="14"/>
+      <c r="B397" s="15"/>
+      <c r="C397" s="35"/>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="14"/>
+      <c r="B398" s="15"/>
+      <c r="C398" s="35"/>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="14"/>
+      <c r="B399" s="15"/>
+      <c r="C399" s="35"/>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="14"/>
+      <c r="B400" s="15"/>
+      <c r="C400" s="35"/>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="14"/>
+      <c r="B401" s="15"/>
+      <c r="C401" s="35"/>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="14"/>
+      <c r="B402" s="15"/>
+      <c r="C402" s="35"/>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="14"/>
+      <c r="B403" s="15"/>
+      <c r="C403" s="35"/>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="14"/>
+      <c r="B404" s="15"/>
+      <c r="C404" s="35"/>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="14"/>
+      <c r="B405" s="15"/>
+      <c r="C405" s="35"/>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="14"/>
+      <c r="B406" s="15"/>
+      <c r="C406" s="35"/>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="14"/>
+      <c r="B407" s="15"/>
+      <c r="C407" s="35"/>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="14"/>
+      <c r="B408" s="15"/>
+      <c r="C408" s="35"/>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="14"/>
+      <c r="B409" s="15"/>
+      <c r="C409" s="35"/>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="14"/>
+      <c r="B410" s="15"/>
+      <c r="C410" s="16"/>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="14"/>
+      <c r="B411" s="15"/>
+      <c r="C411" s="16"/>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="14"/>
+      <c r="B412" s="15"/>
+      <c r="C412" s="16"/>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="14"/>
+      <c r="B413" s="15"/>
+      <c r="C413" s="16"/>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="14"/>
+      <c r="B414" s="15"/>
+      <c r="C414" s="16"/>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="14"/>
+      <c r="B415" s="15"/>
+      <c r="C415" s="16"/>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="14"/>
+      <c r="B416" s="15"/>
+      <c r="C416" s="16"/>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="14"/>
+      <c r="B417" s="15"/>
+      <c r="C417" s="16"/>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="14"/>
+      <c r="B418" s="15"/>
+      <c r="C418" s="16"/>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="14"/>
+      <c r="B419" s="15"/>
+      <c r="C419" s="16"/>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="14"/>
+      <c r="B420" s="15"/>
+      <c r="C420" s="16"/>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="14"/>
+      <c r="B421" s="15"/>
+      <c r="C421" s="16"/>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="14"/>
+      <c r="B422" s="15"/>
+      <c r="C422" s="16"/>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="14"/>
+      <c r="B423" s="15"/>
+      <c r="C423" s="16"/>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="14"/>
+      <c r="B424" s="15"/>
+      <c r="C424" s="16"/>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="14"/>
+      <c r="B425" s="15"/>
+      <c r="C425" s="16"/>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="14"/>
+      <c r="B426" s="15"/>
+      <c r="C426" s="16"/>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="14"/>
+      <c r="B427" s="15"/>
+      <c r="C427" s="16"/>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="14"/>
+      <c r="B428" s="15"/>
+      <c r="C428" s="16"/>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="14"/>
+      <c r="B429" s="15"/>
+      <c r="C429" s="35"/>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="14"/>
+      <c r="B430" s="15"/>
+      <c r="C430" s="35"/>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="14"/>
+      <c r="B431" s="15"/>
+      <c r="C431" s="35"/>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="14"/>
+      <c r="B432" s="15"/>
+      <c r="C432" s="35"/>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="14"/>
+      <c r="B433" s="15"/>
+      <c r="C433" s="35"/>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="14"/>
+      <c r="B434" s="15"/>
+      <c r="C434" s="35"/>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="14"/>
+      <c r="B435" s="15"/>
+      <c r="C435" s="35"/>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="14"/>
+      <c r="B436" s="15"/>
+      <c r="C436" s="35"/>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="14"/>
+      <c r="B437" s="15"/>
+      <c r="C437" s="35"/>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="14"/>
+      <c r="B438" s="15"/>
+      <c r="C438" s="35"/>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="14"/>
+      <c r="B439" s="15"/>
+      <c r="C439" s="35"/>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="14"/>
+      <c r="B440" s="15"/>
+      <c r="C440" s="35"/>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="14"/>
+      <c r="B441" s="15"/>
+      <c r="C441" s="35"/>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="14"/>
+      <c r="B442" s="15"/>
+      <c r="C442" s="35"/>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="14"/>
+      <c r="B443" s="15"/>
+      <c r="C443" s="35"/>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="14"/>
+      <c r="B444" s="15"/>
+      <c r="C444" s="35"/>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="14"/>
+      <c r="B445" s="15"/>
+      <c r="C445" s="35"/>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="14"/>
+      <c r="B446" s="15"/>
+      <c r="C446" s="35"/>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="14"/>
+      <c r="B447" s="15"/>
+      <c r="C447" s="35"/>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="14"/>
+      <c r="B448" s="15"/>
+      <c r="C448" s="35"/>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="14"/>
+      <c r="B449" s="15"/>
+      <c r="C449" s="35"/>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="14"/>
+      <c r="B450" s="15"/>
+      <c r="C450" s="35"/>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="14"/>
+      <c r="B451" s="15"/>
+      <c r="C451" s="35"/>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="14"/>
+      <c r="B452" s="15"/>
+      <c r="C452" s="16"/>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="14"/>
+      <c r="B453" s="15"/>
+      <c r="C453" s="16"/>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="14"/>
+      <c r="B454" s="15"/>
+      <c r="C454" s="16"/>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="14"/>
+      <c r="B455" s="15"/>
+      <c r="C455" s="16"/>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="14"/>
+      <c r="B456" s="15"/>
+      <c r="C456" s="16"/>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="14"/>
+      <c r="B457" s="15"/>
+      <c r="C457" s="16"/>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="14"/>
+      <c r="B458" s="15"/>
+      <c r="C458" s="16"/>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="14"/>
+      <c r="B459" s="15"/>
+      <c r="C459" s="16"/>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="14"/>
+      <c r="B460" s="15"/>
+      <c r="C460" s="16"/>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="14"/>
+      <c r="B461" s="15"/>
+      <c r="C461" s="16"/>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="14"/>
+      <c r="B462" s="15"/>
+      <c r="C462" s="16"/>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="14"/>
+      <c r="B463" s="15"/>
+      <c r="C463" s="16"/>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="14"/>
+      <c r="B464" s="15"/>
+      <c r="C464" s="16"/>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="14"/>
+      <c r="B465" s="15"/>
+      <c r="C465" s="16"/>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="14"/>
+      <c r="B466" s="15"/>
+      <c r="C466" s="16"/>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="14"/>
+      <c r="B467" s="15"/>
+      <c r="C467" s="16"/>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="14"/>
+      <c r="B468" s="15"/>
+      <c r="C468" s="16"/>
+    </row>
+    <row r="469" ht="14.25" spans="1:5">
+      <c r="A469" s="14"/>
+      <c r="B469" s="15"/>
+      <c r="C469" s="41"/>
+      <c r="D469" s="30"/>
+      <c r="E469" s="30"/>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="14"/>
+      <c r="B470" s="15"/>
+      <c r="C470" s="16"/>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="14"/>
+      <c r="B471" s="15"/>
+      <c r="C471" s="35"/>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="14"/>
+      <c r="B472" s="15"/>
+      <c r="C472" s="35"/>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="14"/>
+      <c r="B473" s="15"/>
+      <c r="C473" s="35"/>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="14"/>
+      <c r="B474" s="15"/>
+      <c r="C474" s="35"/>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="14"/>
+      <c r="B475" s="15"/>
+      <c r="C475" s="35"/>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="14"/>
+      <c r="B476" s="15"/>
+      <c r="C476" s="35"/>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="14"/>
+      <c r="B477" s="15"/>
+      <c r="C477" s="35"/>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="14"/>
+      <c r="B478" s="15"/>
+      <c r="C478" s="35"/>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="14"/>
+      <c r="B479" s="15"/>
+      <c r="C479" s="35"/>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="14"/>
+      <c r="B480" s="15"/>
+      <c r="C480" s="35"/>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="14"/>
+      <c r="B481" s="15"/>
+      <c r="C481" s="35"/>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="14"/>
+      <c r="B482" s="15"/>
+      <c r="C482" s="35"/>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="14"/>
+      <c r="B483" s="15"/>
+      <c r="C483" s="35"/>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="14"/>
+      <c r="B484" s="15"/>
+      <c r="C484" s="35"/>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="14"/>
+      <c r="B485" s="15"/>
+      <c r="C485" s="35"/>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="14"/>
+      <c r="B486" s="15"/>
+      <c r="C486" s="35"/>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="14"/>
+      <c r="B487" s="15"/>
+      <c r="C487" s="35"/>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="14"/>
+      <c r="B488" s="15"/>
+      <c r="C488" s="35"/>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="14"/>
+      <c r="B489" s="15"/>
+      <c r="C489" s="35"/>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="14"/>
+      <c r="B490" s="15"/>
+      <c r="C490" s="35"/>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="14"/>
+      <c r="B491" s="15"/>
+      <c r="C491" s="35"/>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="14"/>
+      <c r="B492" s="15"/>
+      <c r="C492" s="35"/>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="14"/>
+      <c r="B493" s="15"/>
+      <c r="C493" s="35"/>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="14"/>
+      <c r="B494" s="15"/>
+      <c r="C494" s="16"/>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="14"/>
+      <c r="B495" s="15"/>
+      <c r="C495" s="16"/>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="14"/>
+      <c r="B496" s="15"/>
+      <c r="C496" s="16"/>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="14"/>
+      <c r="B497" s="15"/>
+      <c r="C497" s="16"/>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="14"/>
+      <c r="B498" s="15"/>
+      <c r="C498" s="16"/>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="14"/>
+      <c r="B499" s="15"/>
+      <c r="C499" s="16"/>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="14"/>
+      <c r="B500" s="15"/>
+      <c r="C500" s="16"/>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="14"/>
+      <c r="B501" s="15"/>
+      <c r="C501" s="16"/>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="14"/>
+      <c r="B502" s="15"/>
+      <c r="C502" s="16"/>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="14"/>
+      <c r="B503" s="15"/>
+      <c r="C503" s="16"/>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="14"/>
+      <c r="B504" s="15"/>
+      <c r="C504" s="16"/>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="14"/>
+      <c r="B505" s="15"/>
+      <c r="C505" s="16"/>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="14"/>
+      <c r="B506" s="15"/>
+      <c r="C506" s="16"/>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="14"/>
+      <c r="B507" s="15"/>
+      <c r="C507" s="16"/>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="14"/>
+      <c r="B508" s="15"/>
+      <c r="C508" s="16"/>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="14"/>
+      <c r="B509" s="15"/>
+      <c r="C509" s="16"/>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="14"/>
+      <c r="B510" s="15"/>
+      <c r="C510" s="16"/>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="14"/>
+      <c r="B511" s="15"/>
+      <c r="C511" s="16"/>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="14"/>
+      <c r="B512" s="15"/>
+      <c r="C512" s="16"/>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="14"/>
+      <c r="B513" s="15"/>
+      <c r="C513" s="35"/>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="14"/>
+      <c r="B514" s="15"/>
+      <c r="C514" s="35"/>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="14"/>
+      <c r="B515" s="15"/>
+      <c r="C515" s="35"/>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="14"/>
+      <c r="B516" s="15"/>
+      <c r="C516" s="35"/>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="14"/>
+      <c r="B517" s="15"/>
+      <c r="C517" s="35"/>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="14"/>
+      <c r="B518" s="15"/>
+      <c r="C518" s="35"/>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="14"/>
+      <c r="B519" s="15"/>
+      <c r="C519" s="35"/>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="14"/>
+      <c r="B520" s="15"/>
+      <c r="C520" s="35"/>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="14"/>
+      <c r="B521" s="15"/>
+      <c r="C521" s="35"/>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="14"/>
+      <c r="B522" s="15"/>
+      <c r="C522" s="35"/>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="14"/>
+      <c r="B523" s="15"/>
+      <c r="C523" s="35"/>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="14"/>
+      <c r="B524" s="15"/>
+      <c r="C524" s="35"/>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="14"/>
+      <c r="B525" s="15"/>
+      <c r="C525" s="35"/>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="14"/>
+      <c r="B526" s="15"/>
+      <c r="C526" s="35"/>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="14"/>
+      <c r="B527" s="15"/>
+      <c r="C527" s="35"/>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="14"/>
+      <c r="B528" s="15"/>
+      <c r="C528" s="35"/>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="14"/>
+      <c r="B529" s="15"/>
+      <c r="C529" s="35"/>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="14"/>
+      <c r="B530" s="15"/>
+      <c r="C530" s="35"/>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="14"/>
+      <c r="B531" s="15"/>
+      <c r="C531" s="35"/>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="14"/>
+      <c r="B532" s="15"/>
+      <c r="C532" s="35"/>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="14"/>
+      <c r="B533" s="15"/>
+      <c r="C533" s="35"/>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="14"/>
+      <c r="B534" s="15"/>
+      <c r="C534" s="35"/>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="14"/>
+      <c r="B535" s="15"/>
+      <c r="C535" s="35"/>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="14"/>
+      <c r="B536" s="15"/>
+      <c r="C536" s="16"/>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="14"/>
+      <c r="B537" s="15"/>
+      <c r="C537" s="16"/>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="14"/>
+      <c r="B538" s="15"/>
+      <c r="C538" s="16"/>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="14"/>
+      <c r="B539" s="15"/>
+      <c r="C539" s="16"/>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="14"/>
+      <c r="B540" s="15"/>
+      <c r="C540" s="16"/>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="14"/>
+      <c r="B541" s="15"/>
+      <c r="C541" s="16"/>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="14"/>
+      <c r="B542" s="15"/>
+      <c r="C542" s="16"/>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="14"/>
+      <c r="B543" s="15"/>
+      <c r="C543" s="16"/>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="14"/>
+      <c r="B544" s="15"/>
+      <c r="C544" s="16"/>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="14"/>
+      <c r="B545" s="15"/>
+      <c r="C545" s="16"/>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="14"/>
+      <c r="B546" s="15"/>
+      <c r="C546" s="16"/>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="14"/>
+      <c r="B547" s="15"/>
+      <c r="C547" s="16"/>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="14"/>
+      <c r="B548" s="15"/>
+      <c r="C548" s="16"/>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="14"/>
+      <c r="B549" s="15"/>
+      <c r="C549" s="16"/>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="14"/>
+      <c r="B550" s="15"/>
+      <c r="C550" s="16"/>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="14"/>
+      <c r="B551" s="15"/>
+      <c r="C551" s="16"/>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="14"/>
+      <c r="B552" s="15"/>
+      <c r="C552" s="16"/>
+    </row>
+    <row r="553" ht="14.25" spans="1:5">
+      <c r="A553" s="14"/>
+      <c r="B553" s="15"/>
+      <c r="C553" s="41"/>
+      <c r="D553" s="30"/>
+      <c r="E553" s="30"/>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="14"/>
+      <c r="B554" s="15"/>
+      <c r="C554" s="16"/>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="14"/>
+      <c r="B555" s="15"/>
+      <c r="C555" s="35"/>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="14"/>
+      <c r="B556" s="15"/>
+      <c r="C556" s="35"/>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="14"/>
+      <c r="B557" s="15"/>
+      <c r="C557" s="35"/>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="14"/>
+      <c r="B558" s="15"/>
+      <c r="C558" s="35"/>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="14"/>
+      <c r="B559" s="15"/>
+      <c r="C559" s="35"/>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="14"/>
+      <c r="B560" s="15"/>
+      <c r="C560" s="35"/>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="14"/>
+      <c r="B561" s="15"/>
+      <c r="C561" s="35"/>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="14"/>
+      <c r="B562" s="15"/>
+      <c r="C562" s="35"/>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="14"/>
+      <c r="B563" s="15"/>
+      <c r="C563" s="35"/>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="14"/>
+      <c r="B564" s="15"/>
+      <c r="C564" s="35"/>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="14"/>
+      <c r="B565" s="15"/>
+      <c r="C565" s="35"/>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="14"/>
+      <c r="B566" s="15"/>
+      <c r="C566" s="35"/>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="14"/>
+      <c r="B567" s="15"/>
+      <c r="C567" s="35"/>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="14"/>
+      <c r="B568" s="15"/>
+      <c r="C568" s="35"/>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="14"/>
+      <c r="B569" s="15"/>
+      <c r="C569" s="35"/>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="14"/>
+      <c r="B570" s="15"/>
+      <c r="C570" s="35"/>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="14"/>
+      <c r="B571" s="15"/>
+      <c r="C571" s="35"/>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="14"/>
+      <c r="B572" s="15"/>
+      <c r="C572" s="35"/>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="14"/>
+      <c r="B573" s="15"/>
+      <c r="C573" s="35"/>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="14"/>
+      <c r="B574" s="15"/>
+      <c r="C574" s="35"/>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="14"/>
+      <c r="B575" s="15"/>
+      <c r="C575" s="35"/>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="14"/>
+      <c r="B576" s="15"/>
+      <c r="C576" s="35"/>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="14"/>
+      <c r="B577" s="15"/>
+      <c r="C577" s="35"/>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="14"/>
+      <c r="B578" s="15"/>
+      <c r="C578" s="16"/>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="14"/>
+      <c r="B579" s="15"/>
+      <c r="C579" s="16"/>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="14"/>
+      <c r="B580" s="15"/>
+      <c r="C580" s="16"/>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="14"/>
+      <c r="B581" s="15"/>
+      <c r="C581" s="16"/>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="14"/>
+      <c r="B582" s="15"/>
+      <c r="C582" s="16"/>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="14"/>
+      <c r="B583" s="15"/>
+      <c r="C583" s="16"/>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="14"/>
+      <c r="B584" s="15"/>
+      <c r="C584" s="16"/>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="14"/>
+      <c r="B585" s="15"/>
+      <c r="C585" s="16"/>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="14"/>
+      <c r="B586" s="15"/>
+      <c r="C586" s="16"/>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="14"/>
+      <c r="B587" s="15"/>
+      <c r="C587" s="16"/>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="14"/>
+      <c r="B588" s="15"/>
+      <c r="C588" s="16"/>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="14"/>
+      <c r="B589" s="15"/>
+      <c r="C589" s="16"/>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="14"/>
+      <c r="B590" s="15"/>
+      <c r="C590" s="16"/>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="14"/>
+      <c r="B591" s="15"/>
+      <c r="C591" s="16"/>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="14"/>
+      <c r="B592" s="15"/>
+      <c r="C592" s="16"/>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="14"/>
+      <c r="B593" s="15"/>
+      <c r="C593" s="16"/>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="14"/>
+      <c r="B594" s="15"/>
+      <c r="C594" s="16"/>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="14"/>
+      <c r="B595" s="15"/>
+      <c r="C595" s="16"/>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="14"/>
+      <c r="B596" s="15"/>
+      <c r="C596" s="16"/>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="14"/>
+      <c r="B597" s="15"/>
+      <c r="C597" s="35"/>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="14"/>
+      <c r="B598" s="15"/>
+      <c r="C598" s="35"/>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="14"/>
+      <c r="B599" s="15"/>
+      <c r="C599" s="35"/>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="14"/>
+      <c r="B600" s="15"/>
+      <c r="C600" s="35"/>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="14"/>
+      <c r="B601" s="15"/>
+      <c r="C601" s="35"/>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="14"/>
+      <c r="B602" s="15"/>
+      <c r="C602" s="35"/>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="14"/>
+      <c r="B603" s="15"/>
+      <c r="C603" s="35"/>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" s="14"/>
+      <c r="B604" s="15"/>
+      <c r="C604" s="35"/>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" s="14"/>
+      <c r="B605" s="15"/>
+      <c r="C605" s="35"/>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" s="14"/>
+      <c r="B606" s="15"/>
+      <c r="C606" s="35"/>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" s="14"/>
+      <c r="B607" s="15"/>
+      <c r="C607" s="35"/>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" s="14"/>
+      <c r="B608" s="15"/>
+      <c r="C608" s="35"/>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="14"/>
+      <c r="B609" s="15"/>
+      <c r="C609" s="35"/>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="14"/>
+      <c r="B610" s="15"/>
+      <c r="C610" s="35"/>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="14"/>
+      <c r="B611" s="15"/>
+      <c r="C611" s="35"/>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="14"/>
+      <c r="B612" s="15"/>
+      <c r="C612" s="35"/>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="14"/>
+      <c r="B613" s="15"/>
+      <c r="C613" s="35"/>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="14"/>
+      <c r="B614" s="15"/>
+      <c r="C614" s="35"/>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="14"/>
+      <c r="B615" s="15"/>
+      <c r="C615" s="35"/>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="14"/>
+      <c r="B616" s="15"/>
+      <c r="C616" s="35"/>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="14"/>
+      <c r="B617" s="15"/>
+      <c r="C617" s="35"/>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="14"/>
+      <c r="B618" s="15"/>
+      <c r="C618" s="35"/>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="14"/>
+      <c r="B619" s="15"/>
+      <c r="C619" s="35"/>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="14"/>
+      <c r="B620" s="15"/>
+      <c r="C620" s="16"/>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="14"/>
+      <c r="B621" s="15"/>
+      <c r="C621" s="16"/>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="14"/>
+      <c r="B622" s="15"/>
+      <c r="C622" s="16"/>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="14"/>
+      <c r="B623" s="15"/>
+      <c r="C623" s="16"/>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="14"/>
+      <c r="B624" s="15"/>
+      <c r="C624" s="16"/>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="14"/>
+      <c r="B625" s="15"/>
+      <c r="C625" s="16"/>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="14"/>
+      <c r="B626" s="15"/>
+      <c r="C626" s="16"/>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="14"/>
+      <c r="B627" s="15"/>
+      <c r="C627" s="16"/>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="14"/>
+      <c r="B628" s="15"/>
+      <c r="C628" s="16"/>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="14"/>
+      <c r="B629" s="15"/>
+      <c r="C629" s="16"/>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="14"/>
+      <c r="B630" s="15"/>
+      <c r="C630" s="16"/>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="14"/>
+      <c r="B631" s="15"/>
+      <c r="C631" s="16"/>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="14"/>
+      <c r="B632" s="15"/>
+      <c r="C632" s="16"/>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="14"/>
+      <c r="B633" s="15"/>
+      <c r="C633" s="16"/>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="14"/>
+      <c r="B634" s="15"/>
+      <c r="C634" s="16"/>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="14"/>
+      <c r="B635" s="15"/>
+      <c r="C635" s="16"/>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="14"/>
+      <c r="B636" s="15"/>
+      <c r="C636" s="16"/>
+    </row>
+    <row r="637" ht="14.25" spans="1:5">
+      <c r="A637" s="14"/>
+      <c r="B637" s="15"/>
+      <c r="C637" s="41"/>
+      <c r="D637" s="30"/>
+      <c r="E637" s="30"/>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="14"/>
+      <c r="B638" s="15"/>
+      <c r="C638" s="16"/>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="14"/>
+      <c r="B639" s="15"/>
+      <c r="C639" s="35"/>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="14"/>
+      <c r="B640" s="15"/>
+      <c r="C640" s="35"/>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="14"/>
+      <c r="B641" s="15"/>
+      <c r="C641" s="35"/>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="14"/>
+      <c r="B642" s="15"/>
+      <c r="C642" s="35"/>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="14"/>
+      <c r="B643" s="15"/>
+      <c r="C643" s="35"/>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="14"/>
+      <c r="B644" s="15"/>
+      <c r="C644" s="35"/>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="14"/>
+      <c r="B645" s="15"/>
+      <c r="C645" s="35"/>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="14"/>
+      <c r="B646" s="15"/>
+      <c r="C646" s="35"/>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="14"/>
+      <c r="B647" s="15"/>
+      <c r="C647" s="35"/>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="14"/>
+      <c r="B648" s="15"/>
+      <c r="C648" s="35"/>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="14"/>
+      <c r="B649" s="15"/>
+      <c r="C649" s="35"/>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="14"/>
+      <c r="B650" s="15"/>
+      <c r="C650" s="35"/>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="14"/>
+      <c r="B651" s="15"/>
+      <c r="C651" s="35"/>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="14"/>
+      <c r="B652" s="15"/>
+      <c r="C652" s="35"/>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="14"/>
+      <c r="B653" s="15"/>
+      <c r="C653" s="35"/>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="14"/>
+      <c r="B654" s="15"/>
+      <c r="C654" s="35"/>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="14"/>
+      <c r="B655" s="15"/>
+      <c r="C655" s="35"/>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="14"/>
+      <c r="B656" s="15"/>
+      <c r="C656" s="35"/>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="14"/>
+      <c r="B657" s="15"/>
+      <c r="C657" s="35"/>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="14"/>
+      <c r="B658" s="15"/>
+      <c r="C658" s="35"/>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="14"/>
+      <c r="B659" s="15"/>
+      <c r="C659" s="35"/>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="14"/>
+      <c r="B660" s="15"/>
+      <c r="C660" s="35"/>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="14"/>
+      <c r="B661" s="15"/>
+      <c r="C661" s="35"/>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="14"/>
+      <c r="B662" s="15"/>
+      <c r="C662" s="16"/>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="14"/>
+      <c r="B663" s="15"/>
+      <c r="C663" s="16"/>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="14"/>
+      <c r="B664" s="15"/>
+      <c r="C664" s="16"/>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="14"/>
+      <c r="B665" s="15"/>
+      <c r="C665" s="16"/>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="14"/>
+      <c r="B666" s="15"/>
+      <c r="C666" s="16"/>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="14"/>
+      <c r="B667" s="15"/>
+      <c r="C667" s="16"/>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="14"/>
+      <c r="B668" s="15"/>
+      <c r="C668" s="16"/>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="14"/>
+      <c r="B669" s="15"/>
+      <c r="C669" s="16"/>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" s="14"/>
+      <c r="B670" s="15"/>
+      <c r="C670" s="16"/>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" s="14"/>
+      <c r="B671" s="15"/>
+      <c r="C671" s="16"/>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" s="14"/>
+      <c r="B672" s="15"/>
+      <c r="C672" s="16"/>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" s="14"/>
+      <c r="B673" s="15"/>
+      <c r="C673" s="16"/>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" s="14"/>
+      <c r="B674" s="15"/>
+      <c r="C674" s="16"/>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" s="14"/>
+      <c r="B675" s="15"/>
+      <c r="C675" s="16"/>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" s="14"/>
+      <c r="B676" s="15"/>
+      <c r="C676" s="16"/>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" s="14"/>
+      <c r="B677" s="15"/>
+      <c r="C677" s="16"/>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" s="14"/>
+      <c r="B678" s="15"/>
+      <c r="C678" s="16"/>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" s="14"/>
+      <c r="B679" s="15"/>
+      <c r="C679" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J46">
@@ -17126,7 +23995,7 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -17142,14 +24011,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>233</v>
+        <v>528</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>234</v>
+        <v>529</v>
       </c>
       <c r="F1" s="19"/>
     </row>
@@ -17158,7 +24027,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>235</v>
+        <v>530</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="4" t="s">
@@ -17197,10 +24066,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>236</v>
+        <v>531</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>237</v>
+        <v>532</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>16</v>
@@ -17209,93 +24078,93 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>238</v>
+        <v>533</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>239</v>
+        <v>534</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>240</v>
+        <v>535</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>241</v>
+        <v>536</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>242</v>
+        <v>537</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>243</v>
+        <v>538</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>244</v>
+        <v>539</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>245</v>
+        <v>540</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>246</v>
+        <v>541</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>247</v>
+        <v>542</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>248</v>
+        <v>543</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>249</v>
+        <v>544</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
-        <v>250</v>
+        <v>545</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>251</v>
+        <v>546</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>246</v>
+        <v>541</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
-        <v>252</v>
+        <v>547</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>253</v>
+        <v>548</v>
       </c>
       <c r="D11" s="24">
         <v>71</v>
@@ -17305,13 +24174,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
-        <v>254</v>
+        <v>549</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>255</v>
+        <v>550</v>
       </c>
       <c r="D12" s="24">
         <v>72</v>
@@ -17321,13 +24190,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>256</v>
+        <v>551</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>257</v>
+        <v>552</v>
       </c>
       <c r="D13" s="24">
         <v>73</v>
@@ -17337,55 +24206,55 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="28" t="s">
-        <v>258</v>
+        <v>553</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>259</v>
+        <v>554</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
-        <v>261</v>
+        <v>556</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>262</v>
+        <v>557</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>263</v>
+        <v>558</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>264</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
-        <v>265</v>
+        <v>560</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>262</v>
+        <v>557</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>266</v>
+        <v>561</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>267</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
-        <v>268</v>
+        <v>563</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>269</v>
+        <v>564</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
@@ -17393,13 +24262,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
-        <v>270</v>
+        <v>565</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>271</v>
+        <v>566</v>
       </c>
       <c r="D18" s="24">
         <v>1</v>
